--- a/DATA/Grades/Second Year/2nd Year/2nd Sem/BSIT 2A_IT 208 .xlsx
+++ b/DATA/Grades/Second Year/2nd Year/2nd Sem/BSIT 2A_IT 208 .xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Subject Description:  </t>
   </si>
   <si>
-    <t>Advanced Database Systems</t>
+    <t>Platform Technologies</t>
   </si>
   <si>
     <t>Section:</t>
@@ -1245,6 +1245,7 @@
     <xf borderId="22" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="24" fillId="8" fontId="14" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="5" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1266,7 +1267,6 @@
     <xf borderId="25" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="26" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="27" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="26" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1565,7 +1565,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1593,7 +1593,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1626,7 +1626,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1654,7 +1654,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2048,7 +2048,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1"/>
@@ -2348,74 +2348,74 @@
       <c r="E13" s="56"/>
       <c r="F13" s="57">
         <f t="shared" ref="F13:F52" si="1">X13</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="55">
-        <v>44.0</v>
-      </c>
-      <c r="H13" s="55">
-        <v>46.0</v>
-      </c>
-      <c r="I13" s="55">
-        <v>159.0</v>
-      </c>
-      <c r="J13" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G13" s="58">
+        <v>80.0</v>
+      </c>
+      <c r="H13" s="58">
+        <v>119.0</v>
+      </c>
+      <c r="I13" s="58">
+        <v>106.0</v>
+      </c>
+      <c r="J13" s="59">
         <f t="shared" ref="J13:J52" si="2">SUM(G13:I13)/SUM($G$11:$I$11)*50+50</f>
-        <v>78.29545455</v>
-      </c>
-      <c r="K13" s="55">
-        <v>48.0</v>
-      </c>
-      <c r="L13" s="55">
-        <v>34.0</v>
-      </c>
-      <c r="M13" s="59">
+        <v>84.65909091</v>
+      </c>
+      <c r="K13" s="58">
+        <v>40.0</v>
+      </c>
+      <c r="L13" s="58">
+        <v>56.0</v>
+      </c>
+      <c r="M13" s="60">
         <f t="shared" ref="M13:M52" si="3">SUM(K13:L13)/SUM($K$11:$L$11)*50+50</f>
-        <v>84.16666667</v>
-      </c>
-      <c r="N13" s="55">
-        <v>2.0</v>
-      </c>
-      <c r="O13" s="55">
-        <v>6.0</v>
-      </c>
-      <c r="P13" s="55">
-        <v>36.0</v>
-      </c>
-      <c r="Q13" s="60">
+        <v>90</v>
+      </c>
+      <c r="N13" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="58">
+        <v>4.0</v>
+      </c>
+      <c r="P13" s="58">
+        <v>86.0</v>
+      </c>
+      <c r="Q13" s="61">
         <f t="shared" ref="Q13:Q52" si="4">SUM(N13:P13)/SUM($N$11:$P$11)*50+50</f>
-        <v>70.18348624</v>
-      </c>
-      <c r="R13" s="55">
-        <v>4.0</v>
-      </c>
-      <c r="S13" s="61">
+        <v>91.74311927</v>
+      </c>
+      <c r="R13" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S13" s="62">
         <f t="shared" ref="S13:S52" si="5">SUM(R13)/SUM($R$11)*50+50</f>
-        <v>70</v>
-      </c>
-      <c r="T13" s="55">
-        <v>44.0</v>
-      </c>
-      <c r="U13" s="55">
-        <v>41.0</v>
-      </c>
-      <c r="V13" s="62">
+        <v>95</v>
+      </c>
+      <c r="T13" s="58">
+        <v>74.0</v>
+      </c>
+      <c r="U13" s="58">
+        <v>84.0</v>
+      </c>
+      <c r="V13" s="63">
         <f t="shared" ref="V13:V52" si="6">(T13/$T$11*50+50)*0.5+(U13/$U$11*50+50)*0.5</f>
-        <v>71.25</v>
-      </c>
-      <c r="W13" s="63">
+        <v>89.5</v>
+      </c>
+      <c r="W13" s="64">
         <f t="shared" ref="W13:W52" si="7">(J13*0.3)+(M13*0.2)+(Q13*0.15)+(S13*0.05)+(V13*0.3)</f>
-        <v>75.72449263</v>
-      </c>
-      <c r="X13" s="63">
+        <v>88.75919516</v>
+      </c>
+      <c r="X13" s="64">
         <f>VLOOKUP(W13,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>3</v>
-      </c>
-      <c r="Y13" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y13" s="64" t="str">
         <f t="shared" ref="Y13:Y52" si="8">IF(X13&lt;=3,"Passed","Failed")</f>
         <v>Passed</v>
       </c>
-      <c r="Z13" s="64"/>
+      <c r="Z13" s="65"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="52">
@@ -2433,74 +2433,74 @@
       <c r="E14" s="56"/>
       <c r="F14" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G14" s="65">
-        <v>94.0</v>
-      </c>
-      <c r="H14" s="65">
-        <v>87.0</v>
-      </c>
-      <c r="I14" s="65">
-        <v>166.0</v>
-      </c>
-      <c r="J14" s="58">
+        <v>1.25</v>
+      </c>
+      <c r="G14" s="58">
+        <v>112.0</v>
+      </c>
+      <c r="H14" s="58">
+        <v>107.0</v>
+      </c>
+      <c r="I14" s="58">
+        <v>182.0</v>
+      </c>
+      <c r="J14" s="59">
         <f t="shared" si="2"/>
-        <v>89.43181818</v>
-      </c>
-      <c r="K14" s="65">
-        <v>37.0</v>
-      </c>
-      <c r="L14" s="65">
-        <v>42.0</v>
-      </c>
-      <c r="M14" s="59">
+        <v>95.56818182</v>
+      </c>
+      <c r="K14" s="58">
+        <v>58.0</v>
+      </c>
+      <c r="L14" s="58">
+        <v>58.0</v>
+      </c>
+      <c r="M14" s="60">
         <f t="shared" si="3"/>
-        <v>82.91666667</v>
-      </c>
-      <c r="N14" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="O14" s="65">
-        <v>5.0</v>
-      </c>
-      <c r="P14" s="65">
-        <v>76.0</v>
-      </c>
-      <c r="Q14" s="60">
+        <v>98.33333333</v>
+      </c>
+      <c r="N14" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="O14" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="P14" s="58">
+        <v>90.0</v>
+      </c>
+      <c r="Q14" s="61">
         <f t="shared" si="4"/>
-        <v>87.6146789</v>
-      </c>
-      <c r="R14" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S14" s="61">
+        <v>93.11926606</v>
+      </c>
+      <c r="R14" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S14" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T14" s="65">
-        <v>75.0</v>
-      </c>
-      <c r="U14" s="65">
+        <v>95</v>
+      </c>
+      <c r="T14" s="58">
         <v>89.0</v>
       </c>
-      <c r="V14" s="62">
+      <c r="U14" s="58">
+        <v>86.0</v>
+      </c>
+      <c r="V14" s="63">
         <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="W14" s="63">
+        <v>93.75</v>
+      </c>
+      <c r="W14" s="64">
         <f t="shared" si="7"/>
-        <v>88.35508062</v>
-      </c>
-      <c r="X14" s="63">
+        <v>95.18001112</v>
+      </c>
+      <c r="X14" s="64">
         <f>VLOOKUP(W14,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y14" s="63" t="str">
+        <v>1.25</v>
+      </c>
+      <c r="Y14" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z14" s="64"/>
+      <c r="Z14" s="65"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="52">
@@ -2518,30 +2518,30 @@
       <c r="E15" s="56"/>
       <c r="F15" s="57">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="G15" s="55">
-        <v>36.0</v>
+        <v>44.0</v>
       </c>
       <c r="H15" s="55">
-        <v>97.0</v>
+        <v>46.0</v>
       </c>
       <c r="I15" s="55">
-        <v>54.0</v>
-      </c>
-      <c r="J15" s="58">
+        <v>159.0</v>
+      </c>
+      <c r="J15" s="59">
         <f t="shared" si="2"/>
-        <v>71.25</v>
+        <v>78.29545455</v>
       </c>
       <c r="K15" s="55">
-        <v>21.0</v>
+        <v>48.0</v>
       </c>
       <c r="L15" s="55">
-        <v>37.0</v>
-      </c>
-      <c r="M15" s="59">
+        <v>34.0</v>
+      </c>
+      <c r="M15" s="60">
         <f t="shared" si="3"/>
-        <v>74.16666667</v>
+        <v>84.16666667</v>
       </c>
       <c r="N15" s="55">
         <v>2.0</v>
@@ -2550,42 +2550,42 @@
         <v>6.0</v>
       </c>
       <c r="P15" s="55">
-        <v>88.0</v>
-      </c>
-      <c r="Q15" s="60">
+        <v>36.0</v>
+      </c>
+      <c r="Q15" s="61">
         <f t="shared" si="4"/>
-        <v>94.03669725</v>
+        <v>70.18348624</v>
       </c>
       <c r="R15" s="55">
-        <v>8.0</v>
-      </c>
-      <c r="S15" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="S15" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="T15" s="55">
-        <v>94.0</v>
+        <v>44.0</v>
       </c>
       <c r="U15" s="55">
-        <v>98.0</v>
-      </c>
-      <c r="V15" s="62">
+        <v>41.0</v>
+      </c>
+      <c r="V15" s="63">
         <f t="shared" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="W15" s="63">
+        <v>71.25</v>
+      </c>
+      <c r="W15" s="64">
         <f t="shared" si="7"/>
-        <v>84.21383792</v>
-      </c>
-      <c r="X15" s="63">
+        <v>75.72449263</v>
+      </c>
+      <c r="X15" s="64">
         <f>VLOOKUP(W15,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.25</v>
-      </c>
-      <c r="Y15" s="63" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z15" s="64"/>
+      <c r="Z15" s="65"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="52">
@@ -2605,72 +2605,72 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G16" s="65">
-        <v>70.0</v>
-      </c>
-      <c r="H16" s="65">
-        <v>114.0</v>
-      </c>
-      <c r="I16" s="65">
-        <v>155.0</v>
-      </c>
-      <c r="J16" s="58">
+      <c r="G16" s="58">
+        <v>101.0</v>
+      </c>
+      <c r="H16" s="58">
+        <v>73.0</v>
+      </c>
+      <c r="I16" s="58">
+        <v>185.0</v>
+      </c>
+      <c r="J16" s="59">
         <f t="shared" si="2"/>
-        <v>88.52272727</v>
-      </c>
-      <c r="K16" s="65">
-        <v>45.0</v>
-      </c>
-      <c r="L16" s="65">
+        <v>90.79545455</v>
+      </c>
+      <c r="K16" s="58">
         <v>59.0</v>
       </c>
-      <c r="M16" s="59">
+      <c r="L16" s="58">
+        <v>49.0</v>
+      </c>
+      <c r="M16" s="60">
         <f t="shared" si="3"/>
-        <v>93.33333333</v>
-      </c>
-      <c r="N16" s="65">
+        <v>95</v>
+      </c>
+      <c r="N16" s="58">
         <v>1.0</v>
       </c>
-      <c r="O16" s="65">
-        <v>6.0</v>
-      </c>
-      <c r="P16" s="65">
-        <v>74.0</v>
-      </c>
-      <c r="Q16" s="60">
+      <c r="O16" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="P16" s="58">
+        <v>79.0</v>
+      </c>
+      <c r="Q16" s="61">
         <f t="shared" si="4"/>
-        <v>87.1559633</v>
-      </c>
-      <c r="R16" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="S16" s="61">
+        <v>87.6146789</v>
+      </c>
+      <c r="R16" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S16" s="62">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="T16" s="65">
-        <v>99.0</v>
-      </c>
-      <c r="U16" s="65">
-        <v>94.0</v>
-      </c>
-      <c r="V16" s="62">
+        <v>90</v>
+      </c>
+      <c r="T16" s="58">
+        <v>98.0</v>
+      </c>
+      <c r="U16" s="58">
+        <v>81.0</v>
+      </c>
+      <c r="V16" s="63">
         <f t="shared" si="6"/>
-        <v>98.25</v>
-      </c>
-      <c r="W16" s="63">
+        <v>94.75</v>
+      </c>
+      <c r="W16" s="64">
         <f t="shared" si="7"/>
-        <v>92.77187934</v>
-      </c>
-      <c r="X16" s="63">
+        <v>92.3058382</v>
+      </c>
+      <c r="X16" s="64">
         <f>VLOOKUP(W16,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Y16" s="63" t="str">
+      <c r="Y16" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z16" s="64"/>
+      <c r="Z16" s="65"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="52">
@@ -2688,30 +2688,30 @@
       <c r="E17" s="56"/>
       <c r="F17" s="57">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="G17" s="55">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
       <c r="H17" s="55">
-        <v>71.0</v>
+        <v>41.0</v>
       </c>
       <c r="I17" s="55">
-        <v>49.0</v>
-      </c>
-      <c r="J17" s="58">
+        <v>46.0</v>
+      </c>
+      <c r="J17" s="59">
         <f t="shared" si="2"/>
-        <v>68.52272727</v>
+        <v>65.90909091</v>
       </c>
       <c r="K17" s="55">
-        <v>55.0</v>
+        <v>25.0</v>
       </c>
       <c r="L17" s="55">
-        <v>35.0</v>
-      </c>
-      <c r="M17" s="59">
+        <v>36.0</v>
+      </c>
+      <c r="M17" s="60">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>75.41666667</v>
       </c>
       <c r="N17" s="55">
         <v>2.0</v>
@@ -2720,42 +2720,42 @@
         <v>6.0</v>
       </c>
       <c r="P17" s="55">
-        <v>53.0</v>
-      </c>
-      <c r="Q17" s="60">
+        <v>93.0</v>
+      </c>
+      <c r="Q17" s="61">
         <f t="shared" si="4"/>
-        <v>77.98165138</v>
+        <v>96.33027523</v>
       </c>
       <c r="R17" s="55">
-        <v>3.0</v>
-      </c>
-      <c r="S17" s="61">
+        <v>7.0</v>
+      </c>
+      <c r="S17" s="62">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="T17" s="55">
-        <v>73.0</v>
+        <v>41.0</v>
       </c>
       <c r="U17" s="55">
-        <v>95.0</v>
-      </c>
-      <c r="V17" s="62">
+        <v>79.0</v>
+      </c>
+      <c r="V17" s="63">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="W17" s="63">
+        <v>80</v>
+      </c>
+      <c r="W17" s="64">
         <f t="shared" si="7"/>
-        <v>80.60406589</v>
-      </c>
-      <c r="X17" s="63">
+        <v>77.55560189</v>
+      </c>
+      <c r="X17" s="64">
         <f>VLOOKUP(W17,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.5</v>
-      </c>
-      <c r="Y17" s="63" t="str">
+        <v>2.75</v>
+      </c>
+      <c r="Y17" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z17" s="64"/>
+      <c r="Z17" s="65"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="52">
@@ -2773,74 +2773,74 @@
       <c r="E18" s="56"/>
       <c r="F18" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G18" s="65">
-        <v>80.0</v>
-      </c>
-      <c r="H18" s="65">
-        <v>119.0</v>
-      </c>
-      <c r="I18" s="65">
-        <v>106.0</v>
-      </c>
-      <c r="J18" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="58">
+        <v>61.0</v>
+      </c>
+      <c r="H18" s="58">
+        <v>62.0</v>
+      </c>
+      <c r="I18" s="58">
+        <v>192.0</v>
+      </c>
+      <c r="J18" s="59">
         <f t="shared" si="2"/>
-        <v>84.65909091</v>
-      </c>
-      <c r="K18" s="65">
-        <v>40.0</v>
-      </c>
-      <c r="L18" s="65">
-        <v>56.0</v>
-      </c>
-      <c r="M18" s="59">
+        <v>85.79545455</v>
+      </c>
+      <c r="K18" s="58">
+        <v>50.0</v>
+      </c>
+      <c r="L18" s="58">
+        <v>52.0</v>
+      </c>
+      <c r="M18" s="60">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="N18" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="O18" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="P18" s="65">
-        <v>86.0</v>
-      </c>
-      <c r="Q18" s="60">
+        <v>92.5</v>
+      </c>
+      <c r="N18" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="O18" s="58">
+        <v>7.0</v>
+      </c>
+      <c r="P18" s="58">
+        <v>100.0</v>
+      </c>
+      <c r="Q18" s="61">
         <f t="shared" si="4"/>
-        <v>91.74311927</v>
-      </c>
-      <c r="R18" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S18" s="61">
+        <v>99.08256881</v>
+      </c>
+      <c r="R18" s="58">
+        <v>10.0</v>
+      </c>
+      <c r="S18" s="62">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T18" s="65">
-        <v>74.0</v>
-      </c>
-      <c r="U18" s="65">
-        <v>84.0</v>
-      </c>
-      <c r="V18" s="62">
+        <v>100</v>
+      </c>
+      <c r="T18" s="58">
+        <v>72.0</v>
+      </c>
+      <c r="U18" s="58">
+        <v>96.0</v>
+      </c>
+      <c r="V18" s="63">
         <f t="shared" si="6"/>
-        <v>89.5</v>
-      </c>
-      <c r="W18" s="63">
+        <v>92</v>
+      </c>
+      <c r="W18" s="64">
         <f t="shared" si="7"/>
-        <v>88.75919516</v>
-      </c>
-      <c r="X18" s="63">
+        <v>91.70102168</v>
+      </c>
+      <c r="X18" s="64">
         <f>VLOOKUP(W18,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y18" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y18" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z18" s="64"/>
+      <c r="Z18" s="65"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="52">
@@ -2858,74 +2858,74 @@
       <c r="E19" s="56"/>
       <c r="F19" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G19" s="65">
-        <v>93.0</v>
-      </c>
-      <c r="H19" s="65">
-        <v>113.0</v>
-      </c>
-      <c r="I19" s="65">
-        <v>194.0</v>
-      </c>
-      <c r="J19" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G19" s="58">
+        <v>110.0</v>
+      </c>
+      <c r="H19" s="58">
+        <v>106.0</v>
+      </c>
+      <c r="I19" s="58">
+        <v>180.0</v>
+      </c>
+      <c r="J19" s="59">
         <f t="shared" si="2"/>
-        <v>95.45454545</v>
-      </c>
-      <c r="K19" s="65">
-        <v>52.0</v>
-      </c>
-      <c r="L19" s="65">
-        <v>57.0</v>
-      </c>
-      <c r="M19" s="59">
+        <v>95</v>
+      </c>
+      <c r="K19" s="58">
+        <v>41.0</v>
+      </c>
+      <c r="L19" s="58">
+        <v>39.0</v>
+      </c>
+      <c r="M19" s="60">
         <f t="shared" si="3"/>
-        <v>95.41666667</v>
-      </c>
-      <c r="N19" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="O19" s="65">
+        <v>83.33333333</v>
+      </c>
+      <c r="N19" s="58">
         <v>2.0</v>
       </c>
-      <c r="P19" s="65">
-        <v>98.0</v>
-      </c>
-      <c r="Q19" s="60">
+      <c r="O19" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="P19" s="58">
+        <v>78.0</v>
+      </c>
+      <c r="Q19" s="61">
         <f t="shared" si="4"/>
-        <v>96.33027523</v>
-      </c>
-      <c r="R19" s="65">
+        <v>87.6146789</v>
+      </c>
+      <c r="R19" s="58">
         <v>8.0</v>
       </c>
-      <c r="S19" s="61">
+      <c r="S19" s="62">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T19" s="65">
-        <v>80.0</v>
-      </c>
-      <c r="U19" s="65">
+      <c r="T19" s="58">
+        <v>88.0</v>
+      </c>
+      <c r="U19" s="58">
         <v>82.0</v>
       </c>
-      <c r="V19" s="62">
+      <c r="V19" s="63">
         <f t="shared" si="6"/>
-        <v>90.5</v>
-      </c>
-      <c r="W19" s="63">
+        <v>92.5</v>
+      </c>
+      <c r="W19" s="64">
         <f t="shared" si="7"/>
-        <v>93.81923825</v>
-      </c>
-      <c r="X19" s="63">
+        <v>90.5588685</v>
+      </c>
+      <c r="X19" s="64">
         <f>VLOOKUP(W19,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y19" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y19" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z19" s="64"/>
+      <c r="Z19" s="65"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="52">
@@ -2941,74 +2941,74 @@
       <c r="E20" s="56"/>
       <c r="F20" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G20" s="65">
-        <v>117.0</v>
-      </c>
-      <c r="H20" s="65">
-        <v>65.0</v>
-      </c>
-      <c r="I20" s="65">
-        <v>187.0</v>
-      </c>
-      <c r="J20" s="58">
+        <v>2.75</v>
+      </c>
+      <c r="G20" s="55">
+        <v>27.0</v>
+      </c>
+      <c r="H20" s="55">
+        <v>61.0</v>
+      </c>
+      <c r="I20" s="55">
+        <v>110.0</v>
+      </c>
+      <c r="J20" s="59">
         <f t="shared" si="2"/>
-        <v>91.93181818</v>
-      </c>
-      <c r="K20" s="65">
+        <v>72.5</v>
+      </c>
+      <c r="K20" s="55">
+        <v>59.0</v>
+      </c>
+      <c r="L20" s="55">
+        <v>46.0</v>
+      </c>
+      <c r="M20" s="60">
+        <f t="shared" si="3"/>
+        <v>93.75</v>
+      </c>
+      <c r="N20" s="55">
+        <v>2.0</v>
+      </c>
+      <c r="O20" s="55">
+        <v>4.0</v>
+      </c>
+      <c r="P20" s="55">
         <v>57.0</v>
       </c>
-      <c r="L20" s="65">
-        <v>49.0</v>
-      </c>
-      <c r="M20" s="59">
-        <f t="shared" si="3"/>
-        <v>94.16666667</v>
-      </c>
-      <c r="N20" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="O20" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="P20" s="65">
-        <v>88.0</v>
-      </c>
-      <c r="Q20" s="60">
+      <c r="Q20" s="61">
         <f t="shared" si="4"/>
-        <v>91.74311927</v>
-      </c>
-      <c r="R20" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="S20" s="61">
+        <v>78.89908257</v>
+      </c>
+      <c r="R20" s="55">
+        <v>8.0</v>
+      </c>
+      <c r="S20" s="62">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="T20" s="65">
-        <v>79.0</v>
-      </c>
-      <c r="U20" s="65">
-        <v>92.0</v>
-      </c>
-      <c r="V20" s="62">
+        <v>90</v>
+      </c>
+      <c r="T20" s="55">
+        <v>21.0</v>
+      </c>
+      <c r="U20" s="55">
+        <v>57.0</v>
+      </c>
+      <c r="V20" s="63">
         <f t="shared" si="6"/>
-        <v>92.75</v>
-      </c>
-      <c r="W20" s="63">
+        <v>69.5</v>
+      </c>
+      <c r="W20" s="64">
         <f t="shared" si="7"/>
-        <v>92.99934668</v>
-      </c>
-      <c r="X20" s="63">
+        <v>77.68486239</v>
+      </c>
+      <c r="X20" s="64">
         <f>VLOOKUP(W20,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y20" s="63" t="str">
+        <v>2.75</v>
+      </c>
+      <c r="Y20" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z20" s="64"/>
+      <c r="Z20" s="65"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="52">
@@ -3026,74 +3026,74 @@
       <c r="E21" s="56"/>
       <c r="F21" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G21" s="65">
-        <v>69.0</v>
-      </c>
-      <c r="H21" s="65">
-        <v>89.0</v>
-      </c>
-      <c r="I21" s="65">
-        <v>186.0</v>
-      </c>
-      <c r="J21" s="58">
+        <v>2</v>
+      </c>
+      <c r="G21" s="55">
+        <v>119.0</v>
+      </c>
+      <c r="H21" s="55">
+        <v>112.0</v>
+      </c>
+      <c r="I21" s="55">
+        <v>150.0</v>
+      </c>
+      <c r="J21" s="59">
         <f t="shared" si="2"/>
-        <v>89.09090909</v>
-      </c>
-      <c r="K21" s="65">
-        <v>35.0</v>
-      </c>
-      <c r="L21" s="65">
-        <v>44.0</v>
-      </c>
-      <c r="M21" s="59">
+        <v>93.29545455</v>
+      </c>
+      <c r="K21" s="55">
+        <v>40.0</v>
+      </c>
+      <c r="L21" s="55">
+        <v>29.0</v>
+      </c>
+      <c r="M21" s="60">
         <f t="shared" si="3"/>
-        <v>82.91666667</v>
-      </c>
-      <c r="N21" s="65">
+        <v>78.75</v>
+      </c>
+      <c r="N21" s="55">
         <v>2.0</v>
       </c>
-      <c r="O21" s="65">
+      <c r="O21" s="55">
         <v>6.0</v>
       </c>
-      <c r="P21" s="65">
-        <v>87.0</v>
-      </c>
-      <c r="Q21" s="60">
+      <c r="P21" s="55">
+        <v>99.0</v>
+      </c>
+      <c r="Q21" s="61">
         <f t="shared" si="4"/>
-        <v>93.57798165</v>
-      </c>
-      <c r="R21" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S21" s="61">
+        <v>99.08256881</v>
+      </c>
+      <c r="R21" s="55">
+        <v>7.0</v>
+      </c>
+      <c r="S21" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T21" s="65">
-        <v>92.0</v>
-      </c>
-      <c r="U21" s="65">
-        <v>88.0</v>
-      </c>
-      <c r="V21" s="62">
+        <v>85</v>
+      </c>
+      <c r="T21" s="55">
+        <v>81.0</v>
+      </c>
+      <c r="U21" s="55">
+        <v>50.0</v>
+      </c>
+      <c r="V21" s="63">
         <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="W21" s="63">
+        <v>82.75</v>
+      </c>
+      <c r="W21" s="64">
         <f t="shared" si="7"/>
-        <v>90.34730331</v>
-      </c>
-      <c r="X21" s="63">
+        <v>87.67602168</v>
+      </c>
+      <c r="X21" s="64">
         <f>VLOOKUP(W21,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y21" s="63" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z21" s="64"/>
+      <c r="Z21" s="65"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="52">
@@ -3111,74 +3111,74 @@
       <c r="E22" s="56"/>
       <c r="F22" s="57">
         <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="G22" s="55">
-        <v>100.0</v>
-      </c>
-      <c r="H22" s="55">
-        <v>120.0</v>
-      </c>
-      <c r="I22" s="55">
-        <v>150.0</v>
-      </c>
-      <c r="J22" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="58">
+        <v>74.0</v>
+      </c>
+      <c r="H22" s="58">
+        <v>96.0</v>
+      </c>
+      <c r="I22" s="58">
+        <v>173.0</v>
+      </c>
+      <c r="J22" s="59">
         <f t="shared" si="2"/>
-        <v>92.04545455</v>
-      </c>
-      <c r="K22" s="55">
-        <v>27.0</v>
-      </c>
-      <c r="L22" s="55">
-        <v>43.0</v>
-      </c>
-      <c r="M22" s="59">
+        <v>88.97727273</v>
+      </c>
+      <c r="K22" s="58">
+        <v>38.0</v>
+      </c>
+      <c r="L22" s="58">
+        <v>59.0</v>
+      </c>
+      <c r="M22" s="60">
         <f t="shared" si="3"/>
-        <v>79.16666667</v>
-      </c>
-      <c r="N22" s="55">
+        <v>90.41666667</v>
+      </c>
+      <c r="N22" s="58">
         <v>2.0</v>
       </c>
-      <c r="O22" s="55">
-        <v>5.0</v>
-      </c>
-      <c r="P22" s="55">
-        <v>59.0</v>
-      </c>
-      <c r="Q22" s="60">
+      <c r="O22" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="P22" s="58">
+        <v>77.0</v>
+      </c>
+      <c r="Q22" s="61">
         <f t="shared" si="4"/>
-        <v>80.27522936</v>
-      </c>
-      <c r="R22" s="55">
-        <v>7.0</v>
-      </c>
-      <c r="S22" s="61">
+        <v>87.1559633</v>
+      </c>
+      <c r="R22" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S22" s="62">
         <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="T22" s="55">
-        <v>38.0</v>
-      </c>
-      <c r="U22" s="55">
-        <v>66.0</v>
-      </c>
-      <c r="V22" s="62">
+        <v>90</v>
+      </c>
+      <c r="T22" s="58">
+        <v>94.0</v>
+      </c>
+      <c r="U22" s="58">
+        <v>96.0</v>
+      </c>
+      <c r="V22" s="63">
         <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="W22" s="63">
+        <v>97.5</v>
+      </c>
+      <c r="W22" s="64">
         <f t="shared" si="7"/>
-        <v>82.5382541</v>
-      </c>
-      <c r="X22" s="63">
+        <v>91.59990965</v>
+      </c>
+      <c r="X22" s="64">
         <f>VLOOKUP(W22,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.25</v>
-      </c>
-      <c r="Y22" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y22" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z22" s="64"/>
+      <c r="Z22" s="65"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="52">
@@ -3207,7 +3207,7 @@
       <c r="I23" s="55">
         <v>150.0</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="59">
         <f t="shared" si="2"/>
         <v>81.47727273</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="L23" s="55">
         <v>48.0</v>
       </c>
-      <c r="M23" s="59">
+      <c r="M23" s="60">
         <f t="shared" si="3"/>
         <v>92.5</v>
       </c>
@@ -3230,14 +3230,14 @@
       <c r="P23" s="55">
         <v>84.0</v>
       </c>
-      <c r="Q23" s="60">
+      <c r="Q23" s="61">
         <f t="shared" si="4"/>
         <v>92.20183486</v>
       </c>
       <c r="R23" s="55">
         <v>9.0</v>
       </c>
-      <c r="S23" s="61">
+      <c r="S23" s="62">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
@@ -3247,23 +3247,23 @@
       <c r="U23" s="55">
         <v>25.0</v>
       </c>
-      <c r="V23" s="62">
+      <c r="V23" s="63">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="W23" s="63">
+      <c r="W23" s="64">
         <f t="shared" si="7"/>
         <v>81.92345705</v>
       </c>
-      <c r="X23" s="63">
+      <c r="X23" s="64">
         <f>VLOOKUP(W23,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2.5</v>
       </c>
-      <c r="Y23" s="63" t="str">
+      <c r="Y23" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z23" s="64"/>
+      <c r="Z23" s="65"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="52">
@@ -3281,74 +3281,74 @@
       <c r="E24" s="56"/>
       <c r="F24" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G24" s="65">
-        <v>99.0</v>
-      </c>
-      <c r="H24" s="65">
-        <v>90.0</v>
-      </c>
-      <c r="I24" s="65">
-        <v>110.0</v>
-      </c>
-      <c r="J24" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="58">
+        <v>93.0</v>
+      </c>
+      <c r="H24" s="58">
+        <v>113.0</v>
+      </c>
+      <c r="I24" s="58">
+        <v>194.0</v>
+      </c>
+      <c r="J24" s="59">
         <f t="shared" si="2"/>
-        <v>83.97727273</v>
-      </c>
-      <c r="K24" s="65">
-        <v>46.0</v>
-      </c>
-      <c r="L24" s="65">
-        <v>49.0</v>
-      </c>
-      <c r="M24" s="59">
+        <v>95.45454545</v>
+      </c>
+      <c r="K24" s="58">
+        <v>52.0</v>
+      </c>
+      <c r="L24" s="58">
+        <v>57.0</v>
+      </c>
+      <c r="M24" s="60">
         <f t="shared" si="3"/>
-        <v>89.58333333</v>
-      </c>
-      <c r="N24" s="65">
+        <v>95.41666667</v>
+      </c>
+      <c r="N24" s="58">
         <v>1.0</v>
       </c>
-      <c r="O24" s="65">
-        <v>5.0</v>
-      </c>
-      <c r="P24" s="65">
-        <v>72.0</v>
-      </c>
-      <c r="Q24" s="60">
+      <c r="O24" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="P24" s="58">
+        <v>98.0</v>
+      </c>
+      <c r="Q24" s="61">
         <f t="shared" si="4"/>
-        <v>85.77981651</v>
-      </c>
-      <c r="R24" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S24" s="61">
+        <v>96.33027523</v>
+      </c>
+      <c r="R24" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S24" s="62">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T24" s="65">
-        <v>91.0</v>
-      </c>
-      <c r="U24" s="65">
+        <v>90</v>
+      </c>
+      <c r="T24" s="58">
+        <v>80.0</v>
+      </c>
+      <c r="U24" s="58">
         <v>82.0</v>
       </c>
-      <c r="V24" s="62">
+      <c r="V24" s="63">
         <f t="shared" si="6"/>
-        <v>93.25</v>
-      </c>
-      <c r="W24" s="63">
+        <v>90.5</v>
+      </c>
+      <c r="W24" s="64">
         <f t="shared" si="7"/>
-        <v>88.70182096</v>
-      </c>
-      <c r="X24" s="63">
+        <v>93.81923825</v>
+      </c>
+      <c r="X24" s="64">
         <f>VLOOKUP(W24,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y24" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y24" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z24" s="64"/>
+      <c r="Z24" s="65"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="52">
@@ -3366,74 +3366,74 @@
       <c r="E25" s="56"/>
       <c r="F25" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G25" s="65">
-        <v>61.0</v>
-      </c>
-      <c r="H25" s="65">
-        <v>62.0</v>
-      </c>
-      <c r="I25" s="65">
-        <v>192.0</v>
-      </c>
-      <c r="J25" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G25" s="58">
+        <v>94.0</v>
+      </c>
+      <c r="H25" s="58">
+        <v>87.0</v>
+      </c>
+      <c r="I25" s="58">
+        <v>166.0</v>
+      </c>
+      <c r="J25" s="59">
         <f t="shared" si="2"/>
-        <v>85.79545455</v>
-      </c>
-      <c r="K25" s="65">
-        <v>50.0</v>
-      </c>
-      <c r="L25" s="65">
-        <v>52.0</v>
-      </c>
-      <c r="M25" s="59">
+        <v>89.43181818</v>
+      </c>
+      <c r="K25" s="58">
+        <v>37.0</v>
+      </c>
+      <c r="L25" s="58">
+        <v>42.0</v>
+      </c>
+      <c r="M25" s="60">
         <f t="shared" si="3"/>
-        <v>92.5</v>
-      </c>
-      <c r="N25" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="O25" s="65">
-        <v>7.0</v>
-      </c>
-      <c r="P25" s="65">
-        <v>100.0</v>
-      </c>
-      <c r="Q25" s="60">
+        <v>82.91666667</v>
+      </c>
+      <c r="N25" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="58">
+        <v>5.0</v>
+      </c>
+      <c r="P25" s="58">
+        <v>76.0</v>
+      </c>
+      <c r="Q25" s="61">
         <f t="shared" si="4"/>
-        <v>99.08256881</v>
-      </c>
-      <c r="R25" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="S25" s="61">
+        <v>87.6146789</v>
+      </c>
+      <c r="R25" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S25" s="62">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="T25" s="65">
-        <v>72.0</v>
-      </c>
-      <c r="U25" s="65">
-        <v>96.0</v>
-      </c>
-      <c r="V25" s="62">
+        <v>90</v>
+      </c>
+      <c r="T25" s="58">
+        <v>75.0</v>
+      </c>
+      <c r="U25" s="58">
+        <v>89.0</v>
+      </c>
+      <c r="V25" s="63">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="W25" s="63">
+        <v>91</v>
+      </c>
+      <c r="W25" s="64">
         <f t="shared" si="7"/>
-        <v>91.70102168</v>
-      </c>
-      <c r="X25" s="63">
+        <v>88.35508062</v>
+      </c>
+      <c r="X25" s="64">
         <f>VLOOKUP(W25,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y25" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y25" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z25" s="64"/>
+      <c r="Z25" s="65"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="52">
@@ -3451,74 +3451,74 @@
       <c r="E26" s="56"/>
       <c r="F26" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G26" s="65">
-        <v>119.0</v>
-      </c>
-      <c r="H26" s="65">
-        <v>81.0</v>
-      </c>
-      <c r="I26" s="65">
-        <v>153.0</v>
-      </c>
-      <c r="J26" s="58">
+        <v>2.5</v>
+      </c>
+      <c r="G26" s="55">
+        <v>43.0</v>
+      </c>
+      <c r="H26" s="55">
+        <v>71.0</v>
+      </c>
+      <c r="I26" s="55">
+        <v>49.0</v>
+      </c>
+      <c r="J26" s="59">
         <f t="shared" si="2"/>
-        <v>90.11363636</v>
-      </c>
-      <c r="K26" s="65">
-        <v>42.0</v>
-      </c>
-      <c r="L26" s="65">
-        <v>41.0</v>
-      </c>
-      <c r="M26" s="59">
+        <v>68.52272727</v>
+      </c>
+      <c r="K26" s="55">
+        <v>55.0</v>
+      </c>
+      <c r="L26" s="55">
+        <v>35.0</v>
+      </c>
+      <c r="M26" s="60">
         <f t="shared" si="3"/>
-        <v>84.58333333</v>
-      </c>
-      <c r="N26" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="O26" s="65">
+        <v>87.5</v>
+      </c>
+      <c r="N26" s="55">
+        <v>2.0</v>
+      </c>
+      <c r="O26" s="55">
         <v>6.0</v>
       </c>
-      <c r="P26" s="65">
-        <v>71.0</v>
-      </c>
-      <c r="Q26" s="60">
+      <c r="P26" s="55">
+        <v>53.0</v>
+      </c>
+      <c r="Q26" s="61">
         <f t="shared" si="4"/>
-        <v>85.32110092</v>
-      </c>
-      <c r="R26" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S26" s="61">
+        <v>77.98165138</v>
+      </c>
+      <c r="R26" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="S26" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T26" s="65">
-        <v>81.0</v>
-      </c>
-      <c r="U26" s="65">
-        <v>96.0</v>
-      </c>
-      <c r="V26" s="62">
+        <v>65</v>
+      </c>
+      <c r="T26" s="55">
+        <v>73.0</v>
+      </c>
+      <c r="U26" s="55">
+        <v>95.0</v>
+      </c>
+      <c r="V26" s="63">
         <f t="shared" si="6"/>
-        <v>94.25</v>
-      </c>
-      <c r="W26" s="63">
+        <v>92</v>
+      </c>
+      <c r="W26" s="64">
         <f t="shared" si="7"/>
-        <v>89.52392271</v>
-      </c>
-      <c r="X26" s="63">
+        <v>80.60406589</v>
+      </c>
+      <c r="X26" s="64">
         <f>VLOOKUP(W26,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y26" s="63" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="Y26" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z26" s="64"/>
+      <c r="Z26" s="65"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="52">
@@ -3536,74 +3536,74 @@
       <c r="E27" s="56"/>
       <c r="F27" s="57">
         <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="G27" s="55">
-        <v>53.0</v>
-      </c>
-      <c r="H27" s="55">
-        <v>41.0</v>
-      </c>
-      <c r="I27" s="55">
-        <v>46.0</v>
-      </c>
-      <c r="J27" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G27" s="58">
+        <v>109.0</v>
+      </c>
+      <c r="H27" s="58">
+        <v>63.0</v>
+      </c>
+      <c r="I27" s="58">
+        <v>109.0</v>
+      </c>
+      <c r="J27" s="59">
         <f t="shared" si="2"/>
-        <v>65.90909091</v>
-      </c>
-      <c r="K27" s="55">
-        <v>25.0</v>
-      </c>
-      <c r="L27" s="55">
-        <v>36.0</v>
-      </c>
-      <c r="M27" s="59">
+        <v>81.93181818</v>
+      </c>
+      <c r="K27" s="58">
+        <v>56.0</v>
+      </c>
+      <c r="L27" s="58">
+        <v>40.0</v>
+      </c>
+      <c r="M27" s="60">
         <f t="shared" si="3"/>
-        <v>75.41666667</v>
-      </c>
-      <c r="N27" s="55">
-        <v>2.0</v>
-      </c>
-      <c r="O27" s="55">
-        <v>6.0</v>
-      </c>
-      <c r="P27" s="55">
-        <v>93.0</v>
-      </c>
-      <c r="Q27" s="60">
+        <v>90</v>
+      </c>
+      <c r="N27" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="P27" s="58">
+        <v>80.0</v>
+      </c>
+      <c r="Q27" s="61">
         <f t="shared" si="4"/>
-        <v>96.33027523</v>
-      </c>
-      <c r="R27" s="55">
-        <v>7.0</v>
-      </c>
-      <c r="S27" s="61">
+        <v>88.0733945</v>
+      </c>
+      <c r="R27" s="58">
+        <v>10.0</v>
+      </c>
+      <c r="S27" s="62">
         <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="T27" s="55">
-        <v>41.0</v>
-      </c>
-      <c r="U27" s="55">
-        <v>79.0</v>
-      </c>
-      <c r="V27" s="62">
+        <v>100</v>
+      </c>
+      <c r="T27" s="58">
+        <v>90.0</v>
+      </c>
+      <c r="U27" s="58">
+        <v>94.0</v>
+      </c>
+      <c r="V27" s="63">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="W27" s="63">
+        <v>96</v>
+      </c>
+      <c r="W27" s="64">
         <f t="shared" si="7"/>
-        <v>77.55560189</v>
-      </c>
-      <c r="X27" s="63">
+        <v>89.59055463</v>
+      </c>
+      <c r="X27" s="64">
         <f>VLOOKUP(W27,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.75</v>
-      </c>
-      <c r="Y27" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y27" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z27" s="64"/>
+      <c r="Z27" s="65"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="52">
@@ -3623,72 +3623,72 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G28" s="65">
-        <v>104.0</v>
-      </c>
-      <c r="H28" s="65">
-        <v>101.0</v>
-      </c>
-      <c r="I28" s="65">
-        <v>175.0</v>
-      </c>
-      <c r="J28" s="58">
+      <c r="G28" s="58">
+        <v>117.0</v>
+      </c>
+      <c r="H28" s="58">
+        <v>65.0</v>
+      </c>
+      <c r="I28" s="58">
+        <v>187.0</v>
+      </c>
+      <c r="J28" s="59">
         <f t="shared" si="2"/>
-        <v>93.18181818</v>
-      </c>
-      <c r="K28" s="65">
-        <v>31.0</v>
-      </c>
-      <c r="L28" s="65">
-        <v>56.0</v>
-      </c>
-      <c r="M28" s="59">
+        <v>91.93181818</v>
+      </c>
+      <c r="K28" s="58">
+        <v>57.0</v>
+      </c>
+      <c r="L28" s="58">
+        <v>49.0</v>
+      </c>
+      <c r="M28" s="60">
         <f t="shared" si="3"/>
-        <v>86.25</v>
-      </c>
-      <c r="N28" s="65">
+        <v>94.16666667</v>
+      </c>
+      <c r="N28" s="58">
         <v>1.0</v>
       </c>
-      <c r="O28" s="65">
-        <v>7.0</v>
-      </c>
-      <c r="P28" s="65">
-        <v>89.0</v>
-      </c>
-      <c r="Q28" s="60">
+      <c r="O28" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="P28" s="58">
+        <v>88.0</v>
+      </c>
+      <c r="Q28" s="61">
         <f t="shared" si="4"/>
-        <v>94.49541284</v>
-      </c>
-      <c r="R28" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S28" s="61">
+        <v>91.74311927</v>
+      </c>
+      <c r="R28" s="58">
+        <v>10.0</v>
+      </c>
+      <c r="S28" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T28" s="65">
-        <v>87.0</v>
-      </c>
-      <c r="U28" s="65">
-        <v>84.0</v>
-      </c>
-      <c r="V28" s="62">
+        <v>100</v>
+      </c>
+      <c r="T28" s="58">
+        <v>79.0</v>
+      </c>
+      <c r="U28" s="58">
+        <v>92.0</v>
+      </c>
+      <c r="V28" s="63">
         <f t="shared" si="6"/>
         <v>92.75</v>
       </c>
-      <c r="W28" s="63">
+      <c r="W28" s="64">
         <f t="shared" si="7"/>
-        <v>91.70385738</v>
-      </c>
-      <c r="X28" s="63">
+        <v>92.99934668</v>
+      </c>
+      <c r="X28" s="64">
         <f>VLOOKUP(W28,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Y28" s="63" t="str">
+      <c r="Y28" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z28" s="64"/>
+      <c r="Z28" s="65"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="52">
@@ -3706,74 +3706,74 @@
       <c r="E29" s="56"/>
       <c r="F29" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G29" s="65">
-        <v>60.0</v>
-      </c>
-      <c r="H29" s="65">
-        <v>66.0</v>
-      </c>
-      <c r="I29" s="65">
-        <v>178.0</v>
-      </c>
-      <c r="J29" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G29" s="58">
+        <v>120.0</v>
+      </c>
+      <c r="H29" s="58">
+        <v>75.0</v>
+      </c>
+      <c r="I29" s="58">
+        <v>151.0</v>
+      </c>
+      <c r="J29" s="59">
         <f t="shared" si="2"/>
-        <v>84.54545455</v>
-      </c>
-      <c r="K29" s="65">
-        <v>32.0</v>
-      </c>
-      <c r="L29" s="65">
-        <v>57.0</v>
-      </c>
-      <c r="M29" s="59">
+        <v>89.31818182</v>
+      </c>
+      <c r="K29" s="58">
+        <v>49.0</v>
+      </c>
+      <c r="L29" s="58">
+        <v>59.0</v>
+      </c>
+      <c r="M29" s="60">
         <f t="shared" si="3"/>
-        <v>87.08333333</v>
-      </c>
-      <c r="N29" s="65">
+        <v>95</v>
+      </c>
+      <c r="N29" s="58">
         <v>2.0</v>
       </c>
-      <c r="O29" s="65">
-        <v>7.0</v>
-      </c>
-      <c r="P29" s="65">
-        <v>84.0</v>
-      </c>
-      <c r="Q29" s="60">
+      <c r="O29" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="P29" s="58">
+        <v>91.0</v>
+      </c>
+      <c r="Q29" s="61">
         <f t="shared" si="4"/>
-        <v>92.66055046</v>
-      </c>
-      <c r="R29" s="65">
+        <v>93.57798165</v>
+      </c>
+      <c r="R29" s="58">
         <v>8.0</v>
       </c>
-      <c r="S29" s="61">
+      <c r="S29" s="62">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T29" s="65">
-        <v>95.0</v>
-      </c>
-      <c r="U29" s="65">
-        <v>80.0</v>
-      </c>
-      <c r="V29" s="62">
+      <c r="T29" s="58">
+        <v>76.0</v>
+      </c>
+      <c r="U29" s="58">
+        <v>86.0</v>
+      </c>
+      <c r="V29" s="63">
         <f t="shared" si="6"/>
-        <v>93.75</v>
-      </c>
-      <c r="W29" s="63">
+        <v>90.5</v>
+      </c>
+      <c r="W29" s="64">
         <f t="shared" si="7"/>
-        <v>89.3043856</v>
-      </c>
-      <c r="X29" s="63">
+        <v>91.48215179</v>
+      </c>
+      <c r="X29" s="64">
         <f>VLOOKUP(W29,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y29" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y29" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z29" s="64"/>
+      <c r="Z29" s="65"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="52">
@@ -3793,72 +3793,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G30" s="65">
-        <v>87.0</v>
-      </c>
-      <c r="H30" s="65">
-        <v>111.0</v>
-      </c>
-      <c r="I30" s="65">
-        <v>156.0</v>
-      </c>
-      <c r="J30" s="58">
+      <c r="G30" s="58">
+        <v>63.0</v>
+      </c>
+      <c r="H30" s="58">
+        <v>71.0</v>
+      </c>
+      <c r="I30" s="58">
+        <v>164.0</v>
+      </c>
+      <c r="J30" s="59">
         <f t="shared" si="2"/>
-        <v>90.22727273</v>
-      </c>
-      <c r="K30" s="65">
-        <v>34.0</v>
-      </c>
-      <c r="L30" s="65">
+        <v>83.86363636</v>
+      </c>
+      <c r="K30" s="58">
+        <v>51.0</v>
+      </c>
+      <c r="L30" s="58">
         <v>37.0</v>
       </c>
-      <c r="M30" s="59">
+      <c r="M30" s="60">
         <f t="shared" si="3"/>
-        <v>79.58333333</v>
-      </c>
-      <c r="N30" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="O30" s="65">
-        <v>6.0</v>
-      </c>
-      <c r="P30" s="65">
-        <v>96.0</v>
-      </c>
-      <c r="Q30" s="60">
+        <v>86.66666667</v>
+      </c>
+      <c r="N30" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="O30" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="P30" s="58">
+        <v>85.0</v>
+      </c>
+      <c r="Q30" s="61">
         <f t="shared" si="4"/>
-        <v>97.24770642</v>
-      </c>
-      <c r="R30" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S30" s="61">
+        <v>90.82568807</v>
+      </c>
+      <c r="R30" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S30" s="62">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T30" s="65">
-        <v>82.0</v>
-      </c>
-      <c r="U30" s="65">
-        <v>100.0</v>
-      </c>
-      <c r="V30" s="62">
+        <v>90</v>
+      </c>
+      <c r="T30" s="58">
+        <v>70.0</v>
+      </c>
+      <c r="U30" s="58">
+        <v>99.0</v>
+      </c>
+      <c r="V30" s="63">
         <f t="shared" si="6"/>
-        <v>95.5</v>
-      </c>
-      <c r="W30" s="63">
+        <v>92.25</v>
+      </c>
+      <c r="W30" s="64">
         <f t="shared" si="7"/>
-        <v>90.97200445</v>
-      </c>
-      <c r="X30" s="63">
+        <v>88.29127745</v>
+      </c>
+      <c r="X30" s="64">
         <f>VLOOKUP(W30,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y30" s="63" t="str">
+      <c r="Y30" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z30" s="64"/>
+      <c r="Z30" s="65"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="52">
@@ -3876,74 +3876,74 @@
       <c r="E31" s="56"/>
       <c r="F31" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G31" s="65">
-        <v>116.0</v>
-      </c>
-      <c r="H31" s="65">
-        <v>116.0</v>
-      </c>
-      <c r="I31" s="65">
-        <v>145.0</v>
-      </c>
-      <c r="J31" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G31" s="58">
+        <v>99.0</v>
+      </c>
+      <c r="H31" s="58">
+        <v>90.0</v>
+      </c>
+      <c r="I31" s="58">
+        <v>110.0</v>
+      </c>
+      <c r="J31" s="59">
         <f t="shared" si="2"/>
-        <v>92.84090909</v>
-      </c>
-      <c r="K31" s="65">
-        <v>39.0</v>
-      </c>
-      <c r="L31" s="65">
-        <v>51.0</v>
-      </c>
-      <c r="M31" s="59">
+        <v>83.97727273</v>
+      </c>
+      <c r="K31" s="58">
+        <v>46.0</v>
+      </c>
+      <c r="L31" s="58">
+        <v>49.0</v>
+      </c>
+      <c r="M31" s="60">
         <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-      <c r="N31" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="O31" s="65">
+        <v>89.58333333</v>
+      </c>
+      <c r="N31" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="O31" s="58">
         <v>5.0</v>
       </c>
-      <c r="P31" s="65">
-        <v>92.0</v>
-      </c>
-      <c r="Q31" s="60">
+      <c r="P31" s="58">
+        <v>72.0</v>
+      </c>
+      <c r="Q31" s="61">
         <f t="shared" si="4"/>
-        <v>94.49541284</v>
-      </c>
-      <c r="R31" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S31" s="61">
+        <v>85.77981651</v>
+      </c>
+      <c r="R31" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S31" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T31" s="65">
-        <v>96.0</v>
-      </c>
-      <c r="U31" s="65">
-        <v>85.0</v>
-      </c>
-      <c r="V31" s="62">
+        <v>95</v>
+      </c>
+      <c r="T31" s="58">
+        <v>91.0</v>
+      </c>
+      <c r="U31" s="58">
+        <v>82.0</v>
+      </c>
+      <c r="V31" s="63">
         <f t="shared" si="6"/>
-        <v>95.25</v>
-      </c>
-      <c r="W31" s="63">
+        <v>93.25</v>
+      </c>
+      <c r="W31" s="64">
         <f t="shared" si="7"/>
-        <v>92.60158465</v>
-      </c>
-      <c r="X31" s="63">
+        <v>88.70182096</v>
+      </c>
+      <c r="X31" s="64">
         <f>VLOOKUP(W31,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y31" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y31" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z31" s="64"/>
+      <c r="Z31" s="65"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="52">
@@ -3961,74 +3961,74 @@
       <c r="E32" s="56"/>
       <c r="F32" s="57">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G32" s="65">
-        <v>64.0</v>
-      </c>
-      <c r="H32" s="65">
-        <v>86.0</v>
-      </c>
-      <c r="I32" s="65">
-        <v>107.0</v>
-      </c>
-      <c r="J32" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G32" s="58">
+        <v>116.0</v>
+      </c>
+      <c r="H32" s="58">
+        <v>116.0</v>
+      </c>
+      <c r="I32" s="58">
+        <v>145.0</v>
+      </c>
+      <c r="J32" s="59">
         <f t="shared" si="2"/>
-        <v>79.20454545</v>
-      </c>
-      <c r="K32" s="65">
-        <v>48.0</v>
-      </c>
-      <c r="L32" s="65">
-        <v>59.0</v>
-      </c>
-      <c r="M32" s="59">
+        <v>92.84090909</v>
+      </c>
+      <c r="K32" s="58">
+        <v>39.0</v>
+      </c>
+      <c r="L32" s="58">
+        <v>51.0</v>
+      </c>
+      <c r="M32" s="60">
         <f t="shared" si="3"/>
-        <v>94.58333333</v>
-      </c>
-      <c r="N32" s="65">
+        <v>87.5</v>
+      </c>
+      <c r="N32" s="58">
         <v>0.0</v>
       </c>
-      <c r="O32" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="P32" s="65">
-        <v>73.0</v>
-      </c>
-      <c r="Q32" s="60">
+      <c r="O32" s="58">
+        <v>5.0</v>
+      </c>
+      <c r="P32" s="58">
+        <v>92.0</v>
+      </c>
+      <c r="Q32" s="61">
         <f t="shared" si="4"/>
-        <v>84.86238532</v>
-      </c>
-      <c r="R32" s="65">
+        <v>94.49541284</v>
+      </c>
+      <c r="R32" s="58">
         <v>8.0</v>
       </c>
-      <c r="S32" s="61">
+      <c r="S32" s="62">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T32" s="65">
-        <v>71.0</v>
-      </c>
-      <c r="U32" s="65">
-        <v>95.0</v>
-      </c>
-      <c r="V32" s="62">
+      <c r="T32" s="58">
+        <v>96.0</v>
+      </c>
+      <c r="U32" s="58">
+        <v>85.0</v>
+      </c>
+      <c r="V32" s="63">
         <f t="shared" si="6"/>
-        <v>91.5</v>
-      </c>
-      <c r="W32" s="63">
+        <v>95.25</v>
+      </c>
+      <c r="W32" s="64">
         <f t="shared" si="7"/>
-        <v>87.3573881</v>
-      </c>
-      <c r="X32" s="63">
+        <v>92.60158465</v>
+      </c>
+      <c r="X32" s="64">
         <f>VLOOKUP(W32,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Y32" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y32" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z32" s="64"/>
+      <c r="Z32" s="65"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="52">
@@ -4046,74 +4046,74 @@
       <c r="E33" s="56"/>
       <c r="F33" s="57">
         <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="G33" s="55">
-        <v>105.0</v>
-      </c>
-      <c r="H33" s="55">
-        <v>51.0</v>
-      </c>
-      <c r="I33" s="55">
-        <v>83.0</v>
-      </c>
-      <c r="J33" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G33" s="58">
+        <v>97.0</v>
+      </c>
+      <c r="H33" s="58">
+        <v>84.0</v>
+      </c>
+      <c r="I33" s="58">
+        <v>161.0</v>
+      </c>
+      <c r="J33" s="59">
         <f t="shared" si="2"/>
-        <v>77.15909091</v>
-      </c>
-      <c r="K33" s="55">
-        <v>51.0</v>
-      </c>
-      <c r="L33" s="55">
-        <v>49.0</v>
-      </c>
-      <c r="M33" s="59">
+        <v>88.86363636</v>
+      </c>
+      <c r="K33" s="58">
+        <v>54.0</v>
+      </c>
+      <c r="L33" s="58">
+        <v>60.0</v>
+      </c>
+      <c r="M33" s="60">
         <f t="shared" si="3"/>
-        <v>91.66666667</v>
-      </c>
-      <c r="N33" s="55">
-        <v>2.0</v>
-      </c>
-      <c r="O33" s="55">
-        <v>5.0</v>
-      </c>
-      <c r="P33" s="55">
-        <v>52.0</v>
-      </c>
-      <c r="Q33" s="60">
+        <v>97.5</v>
+      </c>
+      <c r="N33" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="O33" s="58">
+        <v>7.0</v>
+      </c>
+      <c r="P33" s="58">
+        <v>93.0</v>
+      </c>
+      <c r="Q33" s="61">
         <f t="shared" si="4"/>
-        <v>77.06422018</v>
-      </c>
-      <c r="R33" s="55">
-        <v>4.0</v>
-      </c>
-      <c r="S33" s="61">
+        <v>96.33027523</v>
+      </c>
+      <c r="R33" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S33" s="62">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="T33" s="55">
-        <v>49.0</v>
-      </c>
-      <c r="U33" s="55">
-        <v>38.0</v>
-      </c>
-      <c r="V33" s="62">
+        <v>95</v>
+      </c>
+      <c r="T33" s="58">
+        <v>78.0</v>
+      </c>
+      <c r="U33" s="58">
+        <v>87.0</v>
+      </c>
+      <c r="V33" s="63">
         <f t="shared" si="6"/>
-        <v>71.75</v>
-      </c>
-      <c r="W33" s="63">
+        <v>91.25</v>
+      </c>
+      <c r="W33" s="64">
         <f t="shared" si="7"/>
-        <v>78.06569363</v>
-      </c>
-      <c r="X33" s="63">
+        <v>92.73363219</v>
+      </c>
+      <c r="X33" s="64">
         <f>VLOOKUP(W33,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.75</v>
-      </c>
-      <c r="Y33" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y33" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z33" s="64"/>
+      <c r="Z33" s="65"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="52">
@@ -4131,74 +4131,74 @@
       <c r="E34" s="56"/>
       <c r="F34" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G34" s="65">
-        <v>72.0</v>
-      </c>
-      <c r="H34" s="65">
+        <v>2.75</v>
+      </c>
+      <c r="G34" s="55">
         <v>105.0</v>
       </c>
-      <c r="I34" s="65">
-        <v>128.0</v>
-      </c>
-      <c r="J34" s="58">
+      <c r="H34" s="55">
+        <v>51.0</v>
+      </c>
+      <c r="I34" s="55">
+        <v>83.0</v>
+      </c>
+      <c r="J34" s="59">
         <f t="shared" si="2"/>
-        <v>84.65909091</v>
-      </c>
-      <c r="K34" s="65">
-        <v>47.0</v>
-      </c>
-      <c r="L34" s="65">
-        <v>54.0</v>
-      </c>
-      <c r="M34" s="59">
+        <v>77.15909091</v>
+      </c>
+      <c r="K34" s="55">
+        <v>51.0</v>
+      </c>
+      <c r="L34" s="55">
+        <v>49.0</v>
+      </c>
+      <c r="M34" s="60">
         <f t="shared" si="3"/>
-        <v>92.08333333</v>
-      </c>
-      <c r="N34" s="65">
+        <v>91.66666667</v>
+      </c>
+      <c r="N34" s="55">
         <v>2.0</v>
       </c>
-      <c r="O34" s="65">
+      <c r="O34" s="55">
         <v>5.0</v>
       </c>
-      <c r="P34" s="65">
-        <v>83.0</v>
-      </c>
-      <c r="Q34" s="60">
+      <c r="P34" s="55">
+        <v>52.0</v>
+      </c>
+      <c r="Q34" s="61">
         <f t="shared" si="4"/>
-        <v>91.28440367</v>
-      </c>
-      <c r="R34" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S34" s="61">
+        <v>77.06422018</v>
+      </c>
+      <c r="R34" s="55">
+        <v>4.0</v>
+      </c>
+      <c r="S34" s="62">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T34" s="65">
-        <v>84.0</v>
-      </c>
-      <c r="U34" s="65">
-        <v>80.0</v>
-      </c>
-      <c r="V34" s="62">
+        <v>70</v>
+      </c>
+      <c r="T34" s="55">
+        <v>49.0</v>
+      </c>
+      <c r="U34" s="55">
+        <v>38.0</v>
+      </c>
+      <c r="V34" s="63">
         <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="W34" s="63">
+        <v>71.75</v>
+      </c>
+      <c r="W34" s="64">
         <f t="shared" si="7"/>
-        <v>89.55705449</v>
-      </c>
-      <c r="X34" s="63">
+        <v>78.06569363</v>
+      </c>
+      <c r="X34" s="64">
         <f>VLOOKUP(W34,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y34" s="63" t="str">
+        <v>2.75</v>
+      </c>
+      <c r="Y34" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z34" s="64"/>
+      <c r="Z34" s="65"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="52">
@@ -4218,72 +4218,72 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G35" s="65">
-        <v>68.0</v>
-      </c>
-      <c r="H35" s="65">
-        <v>83.0</v>
-      </c>
-      <c r="I35" s="65">
-        <v>170.0</v>
-      </c>
-      <c r="J35" s="58">
+      <c r="G35" s="58">
+        <v>70.0</v>
+      </c>
+      <c r="H35" s="58">
+        <v>114.0</v>
+      </c>
+      <c r="I35" s="58">
+        <v>155.0</v>
+      </c>
+      <c r="J35" s="59">
         <f t="shared" si="2"/>
-        <v>86.47727273</v>
-      </c>
-      <c r="K35" s="65">
-        <v>36.0</v>
-      </c>
-      <c r="L35" s="65">
+        <v>88.52272727</v>
+      </c>
+      <c r="K35" s="58">
+        <v>45.0</v>
+      </c>
+      <c r="L35" s="58">
         <v>59.0</v>
       </c>
-      <c r="M35" s="59">
+      <c r="M35" s="60">
         <f t="shared" si="3"/>
-        <v>89.58333333</v>
-      </c>
-      <c r="N35" s="65">
+        <v>93.33333333</v>
+      </c>
+      <c r="N35" s="58">
         <v>1.0</v>
       </c>
-      <c r="O35" s="65">
+      <c r="O35" s="58">
         <v>6.0</v>
       </c>
-      <c r="P35" s="65">
+      <c r="P35" s="58">
+        <v>74.0</v>
+      </c>
+      <c r="Q35" s="61">
+        <f t="shared" si="4"/>
+        <v>87.1559633</v>
+      </c>
+      <c r="R35" s="58">
+        <v>10.0</v>
+      </c>
+      <c r="S35" s="62">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="T35" s="58">
+        <v>99.0</v>
+      </c>
+      <c r="U35" s="58">
         <v>94.0</v>
       </c>
-      <c r="Q35" s="60">
-        <f t="shared" si="4"/>
-        <v>96.33027523</v>
-      </c>
-      <c r="R35" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S35" s="61">
-        <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T35" s="65">
-        <v>93.0</v>
-      </c>
-      <c r="U35" s="65">
-        <v>100.0</v>
-      </c>
-      <c r="V35" s="62">
+      <c r="V35" s="63">
         <f t="shared" si="6"/>
         <v>98.25</v>
       </c>
-      <c r="W35" s="63">
+      <c r="W35" s="64">
         <f t="shared" si="7"/>
-        <v>92.53438977</v>
-      </c>
-      <c r="X35" s="63">
+        <v>92.77187934</v>
+      </c>
+      <c r="X35" s="64">
         <f>VLOOKUP(W35,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Y35" s="63" t="str">
+      <c r="Y35" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z35" s="64"/>
+      <c r="Z35" s="65"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="52">
@@ -4303,72 +4303,72 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G36" s="65">
-        <v>74.0</v>
-      </c>
-      <c r="H36" s="65">
-        <v>96.0</v>
-      </c>
-      <c r="I36" s="65">
-        <v>173.0</v>
-      </c>
-      <c r="J36" s="58">
+      <c r="G36" s="55">
+        <v>100.0</v>
+      </c>
+      <c r="H36" s="55">
+        <v>67.0</v>
+      </c>
+      <c r="I36" s="55">
+        <v>167.0</v>
+      </c>
+      <c r="J36" s="59">
         <f t="shared" si="2"/>
-        <v>88.97727273</v>
-      </c>
-      <c r="K36" s="65">
-        <v>38.0</v>
-      </c>
-      <c r="L36" s="65">
-        <v>59.0</v>
-      </c>
-      <c r="M36" s="59">
+        <v>87.95454545</v>
+      </c>
+      <c r="K36" s="55">
+        <v>60.0</v>
+      </c>
+      <c r="L36" s="55">
+        <v>50.0</v>
+      </c>
+      <c r="M36" s="60">
         <f t="shared" si="3"/>
-        <v>90.41666667</v>
-      </c>
-      <c r="N36" s="65">
+        <v>95.83333333</v>
+      </c>
+      <c r="N36" s="55">
         <v>2.0</v>
       </c>
-      <c r="O36" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="P36" s="65">
-        <v>77.0</v>
-      </c>
-      <c r="Q36" s="60">
+      <c r="O36" s="55">
+        <v>6.0</v>
+      </c>
+      <c r="P36" s="55">
+        <v>90.0</v>
+      </c>
+      <c r="Q36" s="61">
         <f t="shared" si="4"/>
-        <v>87.1559633</v>
-      </c>
-      <c r="R36" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S36" s="61">
+        <v>94.95412844</v>
+      </c>
+      <c r="R36" s="55">
+        <v>10.0</v>
+      </c>
+      <c r="S36" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T36" s="65">
-        <v>94.0</v>
-      </c>
-      <c r="U36" s="65">
-        <v>96.0</v>
-      </c>
-      <c r="V36" s="62">
+        <v>100</v>
+      </c>
+      <c r="T36" s="55">
+        <v>89.0</v>
+      </c>
+      <c r="U36" s="55">
+        <v>98.0</v>
+      </c>
+      <c r="V36" s="63">
         <f t="shared" si="6"/>
-        <v>97.5</v>
-      </c>
-      <c r="W36" s="63">
+        <v>96.75</v>
+      </c>
+      <c r="W36" s="64">
         <f t="shared" si="7"/>
-        <v>91.59990965</v>
-      </c>
-      <c r="X36" s="63">
+        <v>93.82114957</v>
+      </c>
+      <c r="X36" s="64">
         <f>VLOOKUP(W36,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Y36" s="63" t="str">
+      <c r="Y36" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z36" s="64"/>
+      <c r="Z36" s="65"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="52">
@@ -4386,74 +4386,74 @@
       <c r="E37" s="56"/>
       <c r="F37" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G37" s="65">
-        <v>90.0</v>
-      </c>
-      <c r="H37" s="65">
-        <v>91.0</v>
-      </c>
-      <c r="I37" s="65">
-        <v>125.0</v>
-      </c>
-      <c r="J37" s="58">
+        <v>2.25</v>
+      </c>
+      <c r="G37" s="55">
+        <v>100.0</v>
+      </c>
+      <c r="H37" s="55">
+        <v>120.0</v>
+      </c>
+      <c r="I37" s="55">
+        <v>150.0</v>
+      </c>
+      <c r="J37" s="59">
         <f t="shared" si="2"/>
-        <v>84.77272727</v>
-      </c>
-      <c r="K37" s="65">
-        <v>55.0</v>
-      </c>
-      <c r="L37" s="65">
-        <v>52.0</v>
-      </c>
-      <c r="M37" s="59">
+        <v>92.04545455</v>
+      </c>
+      <c r="K37" s="55">
+        <v>27.0</v>
+      </c>
+      <c r="L37" s="55">
+        <v>43.0</v>
+      </c>
+      <c r="M37" s="60">
         <f t="shared" si="3"/>
-        <v>94.58333333</v>
-      </c>
-      <c r="N37" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="O37" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="P37" s="65">
-        <v>81.0</v>
-      </c>
-      <c r="Q37" s="60">
+        <v>79.16666667</v>
+      </c>
+      <c r="N37" s="55">
+        <v>2.0</v>
+      </c>
+      <c r="O37" s="55">
+        <v>5.0</v>
+      </c>
+      <c r="P37" s="55">
+        <v>59.0</v>
+      </c>
+      <c r="Q37" s="61">
         <f t="shared" si="4"/>
-        <v>88.53211009</v>
-      </c>
-      <c r="R37" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S37" s="61">
+        <v>80.27522936</v>
+      </c>
+      <c r="R37" s="55">
+        <v>7.0</v>
+      </c>
+      <c r="S37" s="62">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T37" s="65">
-        <v>100.0</v>
-      </c>
-      <c r="U37" s="65">
-        <v>97.0</v>
-      </c>
-      <c r="V37" s="62">
+        <v>85</v>
+      </c>
+      <c r="T37" s="55">
+        <v>38.0</v>
+      </c>
+      <c r="U37" s="55">
+        <v>66.0</v>
+      </c>
+      <c r="V37" s="63">
         <f t="shared" si="6"/>
-        <v>99.25</v>
-      </c>
-      <c r="W37" s="63">
+        <v>76</v>
+      </c>
+      <c r="W37" s="64">
         <f t="shared" si="7"/>
-        <v>92.15330136</v>
-      </c>
-      <c r="X37" s="63">
+        <v>82.5382541</v>
+      </c>
+      <c r="X37" s="64">
         <f>VLOOKUP(W37,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y37" s="63" t="str">
+        <v>2.25</v>
+      </c>
+      <c r="Y37" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z37" s="64"/>
+      <c r="Z37" s="65"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="52">
@@ -4471,74 +4471,74 @@
       <c r="E38" s="56"/>
       <c r="F38" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G38" s="65">
-        <v>109.0</v>
-      </c>
-      <c r="H38" s="65">
-        <v>63.0</v>
-      </c>
-      <c r="I38" s="65">
-        <v>109.0</v>
-      </c>
-      <c r="J38" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G38" s="58">
+        <v>68.0</v>
+      </c>
+      <c r="H38" s="58">
+        <v>83.0</v>
+      </c>
+      <c r="I38" s="58">
+        <v>170.0</v>
+      </c>
+      <c r="J38" s="59">
         <f t="shared" si="2"/>
-        <v>81.93181818</v>
-      </c>
-      <c r="K38" s="65">
-        <v>56.0</v>
-      </c>
-      <c r="L38" s="65">
-        <v>40.0</v>
-      </c>
-      <c r="M38" s="59">
+        <v>86.47727273</v>
+      </c>
+      <c r="K38" s="58">
+        <v>36.0</v>
+      </c>
+      <c r="L38" s="58">
+        <v>59.0</v>
+      </c>
+      <c r="M38" s="60">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="N38" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="O38" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="P38" s="65">
-        <v>80.0</v>
-      </c>
-      <c r="Q38" s="60">
+        <v>89.58333333</v>
+      </c>
+      <c r="N38" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="O38" s="58">
+        <v>6.0</v>
+      </c>
+      <c r="P38" s="58">
+        <v>94.0</v>
+      </c>
+      <c r="Q38" s="61">
         <f t="shared" si="4"/>
-        <v>88.0733945</v>
-      </c>
-      <c r="R38" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="S38" s="61">
+        <v>96.33027523</v>
+      </c>
+      <c r="R38" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S38" s="62">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="T38" s="65">
-        <v>90.0</v>
-      </c>
-      <c r="U38" s="65">
-        <v>94.0</v>
-      </c>
-      <c r="V38" s="62">
+        <v>95</v>
+      </c>
+      <c r="T38" s="58">
+        <v>93.0</v>
+      </c>
+      <c r="U38" s="58">
+        <v>100.0</v>
+      </c>
+      <c r="V38" s="63">
         <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="W38" s="63">
+        <v>98.25</v>
+      </c>
+      <c r="W38" s="64">
         <f t="shared" si="7"/>
-        <v>89.59055463</v>
-      </c>
-      <c r="X38" s="63">
+        <v>92.53438977</v>
+      </c>
+      <c r="X38" s="64">
         <f>VLOOKUP(W38,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y38" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y38" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z38" s="64"/>
+      <c r="Z38" s="65"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="52">
@@ -4558,72 +4558,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G39" s="65">
-        <v>110.0</v>
-      </c>
-      <c r="H39" s="65">
-        <v>106.0</v>
-      </c>
-      <c r="I39" s="65">
-        <v>180.0</v>
-      </c>
-      <c r="J39" s="58">
+      <c r="G39" s="58">
+        <v>100.0</v>
+      </c>
+      <c r="H39" s="58">
+        <v>77.0</v>
+      </c>
+      <c r="I39" s="58">
+        <v>146.0</v>
+      </c>
+      <c r="J39" s="59">
         <f t="shared" si="2"/>
+        <v>86.70454545</v>
+      </c>
+      <c r="K39" s="58">
+        <v>30.0</v>
+      </c>
+      <c r="L39" s="58">
+        <v>36.0</v>
+      </c>
+      <c r="M39" s="60">
+        <f t="shared" si="3"/>
+        <v>77.5</v>
+      </c>
+      <c r="N39" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="O39" s="58">
+        <v>4.0</v>
+      </c>
+      <c r="P39" s="58">
+        <v>97.0</v>
+      </c>
+      <c r="Q39" s="61">
+        <f t="shared" si="4"/>
+        <v>97.24770642</v>
+      </c>
+      <c r="R39" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S39" s="62">
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="K39" s="65">
-        <v>41.0</v>
-      </c>
-      <c r="L39" s="65">
-        <v>39.0</v>
-      </c>
-      <c r="M39" s="59">
-        <f t="shared" si="3"/>
-        <v>83.33333333</v>
-      </c>
-      <c r="N39" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="O39" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="P39" s="65">
-        <v>78.0</v>
-      </c>
-      <c r="Q39" s="60">
-        <f t="shared" si="4"/>
-        <v>87.6146789</v>
-      </c>
-      <c r="R39" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S39" s="61">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T39" s="65">
-        <v>88.0</v>
-      </c>
-      <c r="U39" s="65">
-        <v>82.0</v>
-      </c>
-      <c r="V39" s="62">
+      <c r="T39" s="58">
+        <v>73.0</v>
+      </c>
+      <c r="U39" s="58">
+        <v>96.0</v>
+      </c>
+      <c r="V39" s="63">
         <f t="shared" si="6"/>
-        <v>92.5</v>
-      </c>
-      <c r="W39" s="63">
+        <v>92.25</v>
+      </c>
+      <c r="W39" s="64">
         <f t="shared" si="7"/>
-        <v>90.5588685</v>
-      </c>
-      <c r="X39" s="63">
+        <v>88.5235196</v>
+      </c>
+      <c r="X39" s="64">
         <f>VLOOKUP(W39,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y39" s="63" t="str">
+      <c r="Y39" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z39" s="64"/>
+      <c r="Z39" s="65"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="52">
@@ -4641,74 +4641,74 @@
       <c r="E40" s="56"/>
       <c r="F40" s="57">
         <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="G40" s="55">
-        <v>27.0</v>
-      </c>
-      <c r="H40" s="55">
-        <v>61.0</v>
-      </c>
-      <c r="I40" s="55">
-        <v>110.0</v>
-      </c>
-      <c r="J40" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G40" s="58">
+        <v>77.0</v>
+      </c>
+      <c r="H40" s="58">
+        <v>85.0</v>
+      </c>
+      <c r="I40" s="58">
+        <v>189.0</v>
+      </c>
+      <c r="J40" s="59">
         <f t="shared" si="2"/>
-        <v>72.5</v>
-      </c>
-      <c r="K40" s="55">
-        <v>59.0</v>
-      </c>
-      <c r="L40" s="55">
-        <v>46.0</v>
-      </c>
-      <c r="M40" s="59">
+        <v>89.88636364</v>
+      </c>
+      <c r="K40" s="58">
+        <v>43.0</v>
+      </c>
+      <c r="L40" s="58">
+        <v>56.0</v>
+      </c>
+      <c r="M40" s="60">
         <f t="shared" si="3"/>
-        <v>93.75</v>
-      </c>
-      <c r="N40" s="55">
-        <v>2.0</v>
-      </c>
-      <c r="O40" s="55">
+        <v>91.25</v>
+      </c>
+      <c r="N40" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="O40" s="58">
         <v>4.0</v>
       </c>
-      <c r="P40" s="55">
-        <v>57.0</v>
-      </c>
-      <c r="Q40" s="60">
+      <c r="P40" s="58">
+        <v>75.0</v>
+      </c>
+      <c r="Q40" s="61">
         <f t="shared" si="4"/>
-        <v>78.89908257</v>
-      </c>
-      <c r="R40" s="55">
-        <v>8.0</v>
-      </c>
-      <c r="S40" s="61">
+        <v>86.69724771</v>
+      </c>
+      <c r="R40" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S40" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T40" s="55">
-        <v>21.0</v>
-      </c>
-      <c r="U40" s="55">
-        <v>57.0</v>
-      </c>
-      <c r="V40" s="62">
+        <v>95</v>
+      </c>
+      <c r="T40" s="58">
+        <v>77.0</v>
+      </c>
+      <c r="U40" s="58">
+        <v>93.0</v>
+      </c>
+      <c r="V40" s="63">
         <f t="shared" si="6"/>
-        <v>69.5</v>
-      </c>
-      <c r="W40" s="63">
+        <v>92.5</v>
+      </c>
+      <c r="W40" s="64">
         <f t="shared" si="7"/>
-        <v>77.68486239</v>
-      </c>
-      <c r="X40" s="63">
+        <v>90.72049625</v>
+      </c>
+      <c r="X40" s="64">
         <f>VLOOKUP(W40,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.75</v>
-      </c>
-      <c r="Y40" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y40" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z40" s="64"/>
+      <c r="Z40" s="65"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="52">
@@ -4728,72 +4728,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G41" s="65">
-        <v>77.0</v>
-      </c>
-      <c r="H41" s="65">
-        <v>85.0</v>
-      </c>
-      <c r="I41" s="65">
-        <v>189.0</v>
-      </c>
-      <c r="J41" s="58">
+      <c r="G41" s="58">
+        <v>60.0</v>
+      </c>
+      <c r="H41" s="58">
+        <v>66.0</v>
+      </c>
+      <c r="I41" s="58">
+        <v>178.0</v>
+      </c>
+      <c r="J41" s="59">
         <f t="shared" si="2"/>
-        <v>89.88636364</v>
-      </c>
-      <c r="K41" s="65">
-        <v>43.0</v>
-      </c>
-      <c r="L41" s="65">
-        <v>56.0</v>
-      </c>
-      <c r="M41" s="59">
+        <v>84.54545455</v>
+      </c>
+      <c r="K41" s="58">
+        <v>32.0</v>
+      </c>
+      <c r="L41" s="58">
+        <v>57.0</v>
+      </c>
+      <c r="M41" s="60">
         <f t="shared" si="3"/>
-        <v>91.25</v>
-      </c>
-      <c r="N41" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="O41" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="P41" s="65">
-        <v>75.0</v>
-      </c>
-      <c r="Q41" s="60">
+        <v>87.08333333</v>
+      </c>
+      <c r="N41" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="O41" s="58">
+        <v>7.0</v>
+      </c>
+      <c r="P41" s="58">
+        <v>84.0</v>
+      </c>
+      <c r="Q41" s="61">
         <f t="shared" si="4"/>
-        <v>86.69724771</v>
-      </c>
-      <c r="R41" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S41" s="61">
+        <v>92.66055046</v>
+      </c>
+      <c r="R41" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S41" s="62">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T41" s="65">
-        <v>77.0</v>
-      </c>
-      <c r="U41" s="65">
-        <v>93.0</v>
-      </c>
-      <c r="V41" s="62">
+        <v>90</v>
+      </c>
+      <c r="T41" s="58">
+        <v>95.0</v>
+      </c>
+      <c r="U41" s="58">
+        <v>80.0</v>
+      </c>
+      <c r="V41" s="63">
         <f t="shared" si="6"/>
-        <v>92.5</v>
-      </c>
-      <c r="W41" s="63">
+        <v>93.75</v>
+      </c>
+      <c r="W41" s="64">
         <f t="shared" si="7"/>
-        <v>90.72049625</v>
-      </c>
-      <c r="X41" s="63">
+        <v>89.3043856</v>
+      </c>
+      <c r="X41" s="64">
         <f>VLOOKUP(W41,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y41" s="63" t="str">
+      <c r="Y41" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z41" s="64"/>
+      <c r="Z41" s="65"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="66">
@@ -4811,70 +4811,70 @@
       <c r="E42" s="70"/>
       <c r="F42" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G42" s="65">
-        <v>101.0</v>
-      </c>
-      <c r="H42" s="65">
-        <v>73.0</v>
-      </c>
-      <c r="I42" s="65">
-        <v>185.0</v>
-      </c>
-      <c r="J42" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G42" s="58">
+        <v>72.0</v>
+      </c>
+      <c r="H42" s="58">
+        <v>105.0</v>
+      </c>
+      <c r="I42" s="58">
+        <v>128.0</v>
+      </c>
+      <c r="J42" s="59">
         <f t="shared" si="2"/>
-        <v>90.79545455</v>
-      </c>
-      <c r="K42" s="65">
-        <v>59.0</v>
-      </c>
-      <c r="L42" s="65">
-        <v>49.0</v>
-      </c>
-      <c r="M42" s="59">
+        <v>84.65909091</v>
+      </c>
+      <c r="K42" s="58">
+        <v>47.0</v>
+      </c>
+      <c r="L42" s="58">
+        <v>54.0</v>
+      </c>
+      <c r="M42" s="60">
         <f t="shared" si="3"/>
+        <v>92.08333333</v>
+      </c>
+      <c r="N42" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="O42" s="58">
+        <v>5.0</v>
+      </c>
+      <c r="P42" s="58">
+        <v>83.0</v>
+      </c>
+      <c r="Q42" s="61">
+        <f t="shared" si="4"/>
+        <v>91.28440367</v>
+      </c>
+      <c r="R42" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S42" s="62">
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="N42" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="O42" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="P42" s="65">
-        <v>79.0</v>
-      </c>
-      <c r="Q42" s="60">
-        <f t="shared" si="4"/>
-        <v>87.6146789</v>
-      </c>
-      <c r="R42" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S42" s="61">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T42" s="65">
-        <v>98.0</v>
-      </c>
-      <c r="U42" s="65">
-        <v>81.0</v>
-      </c>
-      <c r="V42" s="62">
+      <c r="T42" s="58">
+        <v>84.0</v>
+      </c>
+      <c r="U42" s="58">
+        <v>80.0</v>
+      </c>
+      <c r="V42" s="63">
         <f t="shared" si="6"/>
-        <v>94.75</v>
-      </c>
-      <c r="W42" s="63">
+        <v>91</v>
+      </c>
+      <c r="W42" s="64">
         <f t="shared" si="7"/>
-        <v>92.3058382</v>
-      </c>
-      <c r="X42" s="63">
+        <v>89.55705449</v>
+      </c>
+      <c r="X42" s="64">
         <f>VLOOKUP(W42,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y42" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y42" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
@@ -4896,74 +4896,74 @@
       <c r="E43" s="56"/>
       <c r="F43" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G43" s="65">
-        <v>82.0</v>
-      </c>
-      <c r="H43" s="65">
-        <v>104.0</v>
-      </c>
-      <c r="I43" s="65">
-        <v>102.0</v>
-      </c>
-      <c r="J43" s="58">
+        <v>2</v>
+      </c>
+      <c r="G43" s="58">
+        <v>64.0</v>
+      </c>
+      <c r="H43" s="58">
+        <v>86.0</v>
+      </c>
+      <c r="I43" s="58">
+        <v>107.0</v>
+      </c>
+      <c r="J43" s="59">
         <f t="shared" si="2"/>
-        <v>82.72727273</v>
-      </c>
-      <c r="K43" s="65">
-        <v>53.0</v>
-      </c>
-      <c r="L43" s="65">
+        <v>79.20454545</v>
+      </c>
+      <c r="K43" s="58">
         <v>48.0</v>
       </c>
-      <c r="M43" s="59">
+      <c r="L43" s="58">
+        <v>59.0</v>
+      </c>
+      <c r="M43" s="60">
         <f t="shared" si="3"/>
-        <v>92.08333333</v>
-      </c>
-      <c r="N43" s="65">
+        <v>94.58333333</v>
+      </c>
+      <c r="N43" s="58">
         <v>0.0</v>
       </c>
-      <c r="O43" s="65">
+      <c r="O43" s="58">
         <v>3.0</v>
       </c>
-      <c r="P43" s="65">
-        <v>99.0</v>
-      </c>
-      <c r="Q43" s="60">
+      <c r="P43" s="58">
+        <v>73.0</v>
+      </c>
+      <c r="Q43" s="61">
         <f t="shared" si="4"/>
-        <v>96.78899083</v>
-      </c>
-      <c r="R43" s="65">
+        <v>84.86238532</v>
+      </c>
+      <c r="R43" s="58">
         <v>8.0</v>
       </c>
-      <c r="S43" s="61">
+      <c r="S43" s="62">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T43" s="65">
-        <v>83.0</v>
-      </c>
-      <c r="U43" s="65">
-        <v>100.0</v>
-      </c>
-      <c r="V43" s="62">
+      <c r="T43" s="58">
+        <v>71.0</v>
+      </c>
+      <c r="U43" s="58">
+        <v>95.0</v>
+      </c>
+      <c r="V43" s="63">
         <f t="shared" si="6"/>
-        <v>95.75</v>
-      </c>
-      <c r="W43" s="63">
+        <v>91.5</v>
+      </c>
+      <c r="W43" s="64">
         <f t="shared" si="7"/>
-        <v>90.97819711</v>
-      </c>
-      <c r="X43" s="63">
+        <v>87.3573881</v>
+      </c>
+      <c r="X43" s="64">
         <f>VLOOKUP(W43,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y43" s="63" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z43" s="64"/>
+      <c r="Z43" s="65"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="52">
@@ -4981,74 +4981,74 @@
       <c r="E44" s="56"/>
       <c r="F44" s="57">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="G44" s="65">
-        <v>100.0</v>
-      </c>
-      <c r="H44" s="65">
-        <v>77.0</v>
-      </c>
-      <c r="I44" s="65">
-        <v>146.0</v>
-      </c>
-      <c r="J44" s="58">
+        <v>2.25</v>
+      </c>
+      <c r="G44" s="55">
+        <v>36.0</v>
+      </c>
+      <c r="H44" s="55">
+        <v>97.0</v>
+      </c>
+      <c r="I44" s="55">
+        <v>54.0</v>
+      </c>
+      <c r="J44" s="59">
         <f t="shared" si="2"/>
-        <v>86.70454545</v>
-      </c>
-      <c r="K44" s="65">
-        <v>30.0</v>
-      </c>
-      <c r="L44" s="65">
-        <v>36.0</v>
-      </c>
-      <c r="M44" s="59">
+        <v>71.25</v>
+      </c>
+      <c r="K44" s="55">
+        <v>21.0</v>
+      </c>
+      <c r="L44" s="55">
+        <v>37.0</v>
+      </c>
+      <c r="M44" s="60">
         <f t="shared" si="3"/>
-        <v>77.5</v>
-      </c>
-      <c r="N44" s="65">
+        <v>74.16666667</v>
+      </c>
+      <c r="N44" s="55">
         <v>2.0</v>
       </c>
-      <c r="O44" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="P44" s="65">
-        <v>97.0</v>
-      </c>
-      <c r="Q44" s="60">
+      <c r="O44" s="55">
+        <v>6.0</v>
+      </c>
+      <c r="P44" s="55">
+        <v>88.0</v>
+      </c>
+      <c r="Q44" s="61">
         <f t="shared" si="4"/>
-        <v>97.24770642</v>
-      </c>
-      <c r="R44" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S44" s="61">
+        <v>94.03669725</v>
+      </c>
+      <c r="R44" s="55">
+        <v>8.0</v>
+      </c>
+      <c r="S44" s="62">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T44" s="65">
-        <v>73.0</v>
-      </c>
-      <c r="U44" s="65">
-        <v>96.0</v>
-      </c>
-      <c r="V44" s="62">
+        <v>90</v>
+      </c>
+      <c r="T44" s="55">
+        <v>94.0</v>
+      </c>
+      <c r="U44" s="55">
+        <v>98.0</v>
+      </c>
+      <c r="V44" s="63">
         <f t="shared" si="6"/>
-        <v>92.25</v>
-      </c>
-      <c r="W44" s="63">
+        <v>98</v>
+      </c>
+      <c r="W44" s="64">
         <f t="shared" si="7"/>
-        <v>88.5235196</v>
-      </c>
-      <c r="X44" s="63">
+        <v>84.21383792</v>
+      </c>
+      <c r="X44" s="64">
         <f>VLOOKUP(W44,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.75</v>
-      </c>
-      <c r="Y44" s="63" t="str">
+        <v>2.25</v>
+      </c>
+      <c r="Y44" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z44" s="64"/>
+      <c r="Z44" s="65"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="52">
@@ -5068,72 +5068,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G45" s="65">
-        <v>65.0</v>
-      </c>
-      <c r="H45" s="65">
-        <v>94.0</v>
-      </c>
-      <c r="I45" s="65">
-        <v>135.0</v>
-      </c>
-      <c r="J45" s="58">
+      <c r="G45" s="58">
+        <v>119.0</v>
+      </c>
+      <c r="H45" s="58">
+        <v>81.0</v>
+      </c>
+      <c r="I45" s="58">
+        <v>153.0</v>
+      </c>
+      <c r="J45" s="59">
         <f t="shared" si="2"/>
-        <v>83.40909091</v>
-      </c>
-      <c r="K45" s="65">
-        <v>33.0</v>
-      </c>
-      <c r="L45" s="65">
-        <v>46.0</v>
-      </c>
-      <c r="M45" s="59">
+        <v>90.11363636</v>
+      </c>
+      <c r="K45" s="58">
+        <v>42.0</v>
+      </c>
+      <c r="L45" s="58">
+        <v>41.0</v>
+      </c>
+      <c r="M45" s="60">
         <f t="shared" si="3"/>
-        <v>82.91666667</v>
-      </c>
-      <c r="N45" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="O45" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="P45" s="65">
-        <v>95.0</v>
-      </c>
-      <c r="Q45" s="60">
+        <v>84.58333333</v>
+      </c>
+      <c r="N45" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="O45" s="58">
+        <v>6.0</v>
+      </c>
+      <c r="P45" s="58">
+        <v>71.0</v>
+      </c>
+      <c r="Q45" s="61">
         <f t="shared" si="4"/>
-        <v>96.33027523</v>
-      </c>
-      <c r="R45" s="65">
+        <v>85.32110092</v>
+      </c>
+      <c r="R45" s="58">
         <v>8.0</v>
       </c>
-      <c r="S45" s="61">
+      <c r="S45" s="62">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T45" s="65">
-        <v>86.0</v>
-      </c>
-      <c r="U45" s="65">
-        <v>83.0</v>
-      </c>
-      <c r="V45" s="62">
+      <c r="T45" s="58">
+        <v>81.0</v>
+      </c>
+      <c r="U45" s="58">
+        <v>96.0</v>
+      </c>
+      <c r="V45" s="63">
         <f t="shared" si="6"/>
-        <v>92.25</v>
-      </c>
-      <c r="W45" s="63">
+        <v>94.25</v>
+      </c>
+      <c r="W45" s="64">
         <f t="shared" si="7"/>
-        <v>88.23060189</v>
-      </c>
-      <c r="X45" s="63">
+        <v>89.52392271</v>
+      </c>
+      <c r="X45" s="64">
         <f>VLOOKUP(W45,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y45" s="63" t="str">
+      <c r="Y45" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z45" s="64"/>
+      <c r="Z45" s="65"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="52">
@@ -5151,74 +5151,74 @@
       <c r="E46" s="56"/>
       <c r="F46" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G46" s="65">
-        <v>97.0</v>
-      </c>
-      <c r="H46" s="65">
-        <v>84.0</v>
-      </c>
-      <c r="I46" s="65">
-        <v>161.0</v>
-      </c>
-      <c r="J46" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G46" s="58">
+        <v>65.0</v>
+      </c>
+      <c r="H46" s="58">
+        <v>94.0</v>
+      </c>
+      <c r="I46" s="58">
+        <v>135.0</v>
+      </c>
+      <c r="J46" s="59">
         <f t="shared" si="2"/>
-        <v>88.86363636</v>
-      </c>
-      <c r="K46" s="65">
-        <v>54.0</v>
-      </c>
-      <c r="L46" s="65">
-        <v>60.0</v>
-      </c>
-      <c r="M46" s="59">
+        <v>83.40909091</v>
+      </c>
+      <c r="K46" s="58">
+        <v>33.0</v>
+      </c>
+      <c r="L46" s="58">
+        <v>46.0</v>
+      </c>
+      <c r="M46" s="60">
         <f t="shared" si="3"/>
-        <v>97.5</v>
-      </c>
-      <c r="N46" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="O46" s="65">
-        <v>7.0</v>
-      </c>
-      <c r="P46" s="65">
-        <v>93.0</v>
-      </c>
-      <c r="Q46" s="60">
+        <v>82.91666667</v>
+      </c>
+      <c r="N46" s="58">
+        <v>2.0</v>
+      </c>
+      <c r="O46" s="58">
+        <v>4.0</v>
+      </c>
+      <c r="P46" s="58">
+        <v>95.0</v>
+      </c>
+      <c r="Q46" s="61">
         <f t="shared" si="4"/>
         <v>96.33027523</v>
       </c>
-      <c r="R46" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S46" s="61">
+      <c r="R46" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S46" s="62">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="T46" s="65">
-        <v>78.0</v>
-      </c>
-      <c r="U46" s="65">
-        <v>87.0</v>
-      </c>
-      <c r="V46" s="62">
+        <v>90</v>
+      </c>
+      <c r="T46" s="58">
+        <v>86.0</v>
+      </c>
+      <c r="U46" s="58">
+        <v>83.0</v>
+      </c>
+      <c r="V46" s="63">
         <f t="shared" si="6"/>
-        <v>91.25</v>
-      </c>
-      <c r="W46" s="63">
+        <v>92.25</v>
+      </c>
+      <c r="W46" s="64">
         <f t="shared" si="7"/>
-        <v>92.73363219</v>
-      </c>
-      <c r="X46" s="63">
+        <v>88.23060189</v>
+      </c>
+      <c r="X46" s="64">
         <f>VLOOKUP(W46,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y46" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y46" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z46" s="64"/>
+      <c r="Z46" s="65"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="52">
@@ -5236,74 +5236,74 @@
       <c r="E47" s="56"/>
       <c r="F47" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G47" s="55">
-        <v>100.0</v>
-      </c>
-      <c r="H47" s="55">
-        <v>67.0</v>
-      </c>
-      <c r="I47" s="55">
-        <v>167.0</v>
-      </c>
-      <c r="J47" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G47" s="58">
+        <v>78.0</v>
+      </c>
+      <c r="H47" s="58">
+        <v>93.0</v>
+      </c>
+      <c r="I47" s="58">
+        <v>112.0</v>
+      </c>
+      <c r="J47" s="59">
         <f t="shared" si="2"/>
-        <v>87.95454545</v>
-      </c>
-      <c r="K47" s="55">
+        <v>82.15909091</v>
+      </c>
+      <c r="K47" s="58">
         <v>60.0</v>
       </c>
-      <c r="L47" s="55">
-        <v>50.0</v>
-      </c>
-      <c r="M47" s="59">
+      <c r="L47" s="58">
+        <v>43.0</v>
+      </c>
+      <c r="M47" s="60">
         <f t="shared" si="3"/>
-        <v>95.83333333</v>
-      </c>
-      <c r="N47" s="55">
+        <v>92.91666667</v>
+      </c>
+      <c r="N47" s="58">
         <v>2.0</v>
       </c>
-      <c r="O47" s="55">
+      <c r="O47" s="58">
         <v>6.0</v>
       </c>
-      <c r="P47" s="55">
-        <v>90.0</v>
-      </c>
-      <c r="Q47" s="60">
+      <c r="P47" s="58">
+        <v>82.0</v>
+      </c>
+      <c r="Q47" s="61">
         <f t="shared" si="4"/>
-        <v>94.95412844</v>
-      </c>
-      <c r="R47" s="55">
-        <v>10.0</v>
-      </c>
-      <c r="S47" s="61">
+        <v>91.28440367</v>
+      </c>
+      <c r="R47" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S47" s="62">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="T47" s="55">
-        <v>89.0</v>
-      </c>
-      <c r="U47" s="55">
-        <v>98.0</v>
-      </c>
-      <c r="V47" s="62">
+        <v>95</v>
+      </c>
+      <c r="T47" s="58">
+        <v>85.0</v>
+      </c>
+      <c r="U47" s="58">
+        <v>93.0</v>
+      </c>
+      <c r="V47" s="63">
         <f t="shared" si="6"/>
-        <v>96.75</v>
-      </c>
-      <c r="W47" s="63">
+        <v>94.5</v>
+      </c>
+      <c r="W47" s="64">
         <f t="shared" si="7"/>
-        <v>93.82114957</v>
-      </c>
-      <c r="X47" s="63">
+        <v>90.02372116</v>
+      </c>
+      <c r="X47" s="64">
         <f>VLOOKUP(W47,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y47" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y47" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z47" s="64"/>
+      <c r="Z47" s="65"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="52">
@@ -5321,74 +5321,74 @@
       <c r="E48" s="56"/>
       <c r="F48" s="57">
         <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="G48" s="65">
-        <v>112.0</v>
-      </c>
-      <c r="H48" s="65">
-        <v>107.0</v>
-      </c>
-      <c r="I48" s="65">
-        <v>182.0</v>
-      </c>
-      <c r="J48" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G48" s="58">
+        <v>90.0</v>
+      </c>
+      <c r="H48" s="58">
+        <v>91.0</v>
+      </c>
+      <c r="I48" s="58">
+        <v>125.0</v>
+      </c>
+      <c r="J48" s="59">
         <f t="shared" si="2"/>
-        <v>95.56818182</v>
-      </c>
-      <c r="K48" s="65">
-        <v>58.0</v>
-      </c>
-      <c r="L48" s="65">
-        <v>58.0</v>
-      </c>
-      <c r="M48" s="59">
+        <v>84.77272727</v>
+      </c>
+      <c r="K48" s="58">
+        <v>55.0</v>
+      </c>
+      <c r="L48" s="58">
+        <v>52.0</v>
+      </c>
+      <c r="M48" s="60">
         <f t="shared" si="3"/>
-        <v>98.33333333</v>
-      </c>
-      <c r="N48" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="O48" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="P48" s="65">
-        <v>90.0</v>
-      </c>
-      <c r="Q48" s="60">
+        <v>94.58333333</v>
+      </c>
+      <c r="N48" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="O48" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="P48" s="58">
+        <v>81.0</v>
+      </c>
+      <c r="Q48" s="61">
         <f t="shared" si="4"/>
-        <v>93.11926606</v>
-      </c>
-      <c r="R48" s="65">
+        <v>88.53211009</v>
+      </c>
+      <c r="R48" s="58">
         <v>9.0</v>
       </c>
-      <c r="S48" s="61">
+      <c r="S48" s="62">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="T48" s="65">
-        <v>89.0</v>
-      </c>
-      <c r="U48" s="65">
-        <v>86.0</v>
-      </c>
-      <c r="V48" s="62">
+      <c r="T48" s="58">
+        <v>100.0</v>
+      </c>
+      <c r="U48" s="58">
+        <v>97.0</v>
+      </c>
+      <c r="V48" s="63">
         <f t="shared" si="6"/>
-        <v>93.75</v>
-      </c>
-      <c r="W48" s="63">
+        <v>99.25</v>
+      </c>
+      <c r="W48" s="64">
         <f t="shared" si="7"/>
-        <v>95.18001112</v>
-      </c>
-      <c r="X48" s="63">
+        <v>92.15330136</v>
+      </c>
+      <c r="X48" s="64">
         <f>VLOOKUP(W48,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.25</v>
-      </c>
-      <c r="Y48" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y48" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z48" s="64"/>
+      <c r="Z48" s="65"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="52">
@@ -5408,72 +5408,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G49" s="65">
-        <v>78.0</v>
-      </c>
-      <c r="H49" s="65">
-        <v>93.0</v>
-      </c>
-      <c r="I49" s="65">
-        <v>112.0</v>
-      </c>
-      <c r="J49" s="58">
+      <c r="G49" s="58">
+        <v>69.0</v>
+      </c>
+      <c r="H49" s="58">
+        <v>89.0</v>
+      </c>
+      <c r="I49" s="58">
+        <v>186.0</v>
+      </c>
+      <c r="J49" s="59">
         <f t="shared" si="2"/>
-        <v>82.15909091</v>
-      </c>
-      <c r="K49" s="65">
-        <v>60.0</v>
-      </c>
-      <c r="L49" s="65">
-        <v>43.0</v>
-      </c>
-      <c r="M49" s="59">
+        <v>89.09090909</v>
+      </c>
+      <c r="K49" s="58">
+        <v>35.0</v>
+      </c>
+      <c r="L49" s="58">
+        <v>44.0</v>
+      </c>
+      <c r="M49" s="60">
         <f t="shared" si="3"/>
-        <v>92.91666667</v>
-      </c>
-      <c r="N49" s="65">
+        <v>82.91666667</v>
+      </c>
+      <c r="N49" s="58">
         <v>2.0</v>
       </c>
-      <c r="O49" s="65">
+      <c r="O49" s="58">
         <v>6.0</v>
       </c>
-      <c r="P49" s="65">
-        <v>82.0</v>
-      </c>
-      <c r="Q49" s="60">
+      <c r="P49" s="58">
+        <v>87.0</v>
+      </c>
+      <c r="Q49" s="61">
         <f t="shared" si="4"/>
-        <v>91.28440367</v>
-      </c>
-      <c r="R49" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="S49" s="61">
+        <v>93.57798165</v>
+      </c>
+      <c r="R49" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S49" s="62">
         <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="T49" s="58">
+        <v>92.0</v>
+      </c>
+      <c r="U49" s="58">
+        <v>88.0</v>
+      </c>
+      <c r="V49" s="63">
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="T49" s="65">
-        <v>85.0</v>
-      </c>
-      <c r="U49" s="65">
-        <v>93.0</v>
-      </c>
-      <c r="V49" s="62">
-        <f t="shared" si="6"/>
-        <v>94.5</v>
-      </c>
-      <c r="W49" s="63">
+      <c r="W49" s="64">
         <f t="shared" si="7"/>
-        <v>90.02372116</v>
-      </c>
-      <c r="X49" s="63">
+        <v>90.34730331</v>
+      </c>
+      <c r="X49" s="64">
         <f>VLOOKUP(W49,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y49" s="63" t="str">
+      <c r="Y49" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z49" s="64"/>
+      <c r="Z49" s="65"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="52">
@@ -5491,74 +5491,74 @@
       <c r="E50" s="56"/>
       <c r="F50" s="57">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="G50" s="65">
-        <v>120.0</v>
-      </c>
-      <c r="H50" s="65">
-        <v>75.0</v>
-      </c>
-      <c r="I50" s="65">
-        <v>151.0</v>
-      </c>
-      <c r="J50" s="58">
+        <v>1.75</v>
+      </c>
+      <c r="G50" s="58">
+        <v>82.0</v>
+      </c>
+      <c r="H50" s="58">
+        <v>104.0</v>
+      </c>
+      <c r="I50" s="58">
+        <v>102.0</v>
+      </c>
+      <c r="J50" s="59">
         <f t="shared" si="2"/>
-        <v>89.31818182</v>
-      </c>
-      <c r="K50" s="65">
-        <v>49.0</v>
-      </c>
-      <c r="L50" s="65">
-        <v>59.0</v>
-      </c>
-      <c r="M50" s="59">
+        <v>82.72727273</v>
+      </c>
+      <c r="K50" s="58">
+        <v>53.0</v>
+      </c>
+      <c r="L50" s="58">
+        <v>48.0</v>
+      </c>
+      <c r="M50" s="60">
         <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="N50" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="O50" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="P50" s="65">
-        <v>91.0</v>
-      </c>
-      <c r="Q50" s="60">
+        <v>92.08333333</v>
+      </c>
+      <c r="N50" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="O50" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="P50" s="58">
+        <v>99.0</v>
+      </c>
+      <c r="Q50" s="61">
         <f t="shared" si="4"/>
-        <v>93.57798165</v>
-      </c>
-      <c r="R50" s="65">
+        <v>96.78899083</v>
+      </c>
+      <c r="R50" s="58">
         <v>8.0</v>
       </c>
-      <c r="S50" s="61">
+      <c r="S50" s="62">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T50" s="65">
-        <v>76.0</v>
-      </c>
-      <c r="U50" s="65">
-        <v>86.0</v>
-      </c>
-      <c r="V50" s="62">
+      <c r="T50" s="58">
+        <v>83.0</v>
+      </c>
+      <c r="U50" s="58">
+        <v>100.0</v>
+      </c>
+      <c r="V50" s="63">
         <f t="shared" si="6"/>
-        <v>90.5</v>
-      </c>
-      <c r="W50" s="63">
+        <v>95.75</v>
+      </c>
+      <c r="W50" s="64">
         <f t="shared" si="7"/>
-        <v>91.48215179</v>
-      </c>
-      <c r="X50" s="63">
+        <v>90.97819711</v>
+      </c>
+      <c r="X50" s="64">
         <f>VLOOKUP(W50,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Y50" s="63" t="str">
+        <v>1.75</v>
+      </c>
+      <c r="Y50" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z50" s="64"/>
+      <c r="Z50" s="65"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="52">
@@ -5578,72 +5578,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G51" s="65">
-        <v>63.0</v>
-      </c>
-      <c r="H51" s="65">
-        <v>71.0</v>
-      </c>
-      <c r="I51" s="65">
-        <v>164.0</v>
-      </c>
-      <c r="J51" s="58">
+      <c r="G51" s="58">
+        <v>87.0</v>
+      </c>
+      <c r="H51" s="58">
+        <v>111.0</v>
+      </c>
+      <c r="I51" s="58">
+        <v>156.0</v>
+      </c>
+      <c r="J51" s="59">
         <f t="shared" si="2"/>
-        <v>83.86363636</v>
-      </c>
-      <c r="K51" s="65">
-        <v>51.0</v>
-      </c>
-      <c r="L51" s="65">
+        <v>90.22727273</v>
+      </c>
+      <c r="K51" s="58">
+        <v>34.0</v>
+      </c>
+      <c r="L51" s="58">
         <v>37.0</v>
       </c>
-      <c r="M51" s="59">
+      <c r="M51" s="60">
         <f t="shared" si="3"/>
-        <v>86.66666667</v>
-      </c>
-      <c r="N51" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="O51" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="P51" s="65">
-        <v>85.0</v>
-      </c>
-      <c r="Q51" s="60">
+        <v>79.58333333</v>
+      </c>
+      <c r="N51" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="O51" s="58">
+        <v>6.0</v>
+      </c>
+      <c r="P51" s="58">
+        <v>96.0</v>
+      </c>
+      <c r="Q51" s="61">
         <f t="shared" si="4"/>
-        <v>90.82568807</v>
-      </c>
-      <c r="R51" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="S51" s="61">
+        <v>97.24770642</v>
+      </c>
+      <c r="R51" s="58">
+        <v>9.0</v>
+      </c>
+      <c r="S51" s="62">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="T51" s="65">
-        <v>70.0</v>
-      </c>
-      <c r="U51" s="65">
-        <v>99.0</v>
-      </c>
-      <c r="V51" s="62">
+        <v>95</v>
+      </c>
+      <c r="T51" s="58">
+        <v>82.0</v>
+      </c>
+      <c r="U51" s="58">
+        <v>100.0</v>
+      </c>
+      <c r="V51" s="63">
         <f t="shared" si="6"/>
-        <v>92.25</v>
-      </c>
-      <c r="W51" s="63">
+        <v>95.5</v>
+      </c>
+      <c r="W51" s="64">
         <f t="shared" si="7"/>
-        <v>88.29127745</v>
-      </c>
-      <c r="X51" s="63">
+        <v>90.97200445</v>
+      </c>
+      <c r="X51" s="64">
         <f>VLOOKUP(W51,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y51" s="63" t="str">
+      <c r="Y51" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z51" s="64"/>
+      <c r="Z51" s="65"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="52">
@@ -5661,74 +5661,74 @@
       <c r="E52" s="56"/>
       <c r="F52" s="57">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G52" s="55">
-        <v>119.0</v>
-      </c>
-      <c r="H52" s="55">
-        <v>112.0</v>
-      </c>
-      <c r="I52" s="55">
-        <v>150.0</v>
-      </c>
-      <c r="J52" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="58">
+        <v>104.0</v>
+      </c>
+      <c r="H52" s="58">
+        <v>101.0</v>
+      </c>
+      <c r="I52" s="58">
+        <v>175.0</v>
+      </c>
+      <c r="J52" s="59">
         <f t="shared" si="2"/>
-        <v>93.29545455</v>
-      </c>
-      <c r="K52" s="55">
-        <v>40.0</v>
-      </c>
-      <c r="L52" s="55">
-        <v>29.0</v>
-      </c>
-      <c r="M52" s="59">
+        <v>93.18181818</v>
+      </c>
+      <c r="K52" s="58">
+        <v>31.0</v>
+      </c>
+      <c r="L52" s="58">
+        <v>56.0</v>
+      </c>
+      <c r="M52" s="60">
         <f t="shared" si="3"/>
-        <v>78.75</v>
-      </c>
-      <c r="N52" s="55">
-        <v>2.0</v>
-      </c>
-      <c r="O52" s="55">
-        <v>6.0</v>
-      </c>
-      <c r="P52" s="55">
-        <v>99.0</v>
-      </c>
-      <c r="Q52" s="60">
+        <v>86.25</v>
+      </c>
+      <c r="N52" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="O52" s="58">
+        <v>7.0</v>
+      </c>
+      <c r="P52" s="58">
+        <v>89.0</v>
+      </c>
+      <c r="Q52" s="61">
         <f t="shared" si="4"/>
-        <v>99.08256881</v>
-      </c>
-      <c r="R52" s="55">
-        <v>7.0</v>
-      </c>
-      <c r="S52" s="61">
+        <v>94.49541284</v>
+      </c>
+      <c r="R52" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="S52" s="62">
         <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="T52" s="55">
-        <v>81.0</v>
-      </c>
-      <c r="U52" s="55">
-        <v>50.0</v>
-      </c>
-      <c r="V52" s="62">
+        <v>90</v>
+      </c>
+      <c r="T52" s="58">
+        <v>87.0</v>
+      </c>
+      <c r="U52" s="58">
+        <v>84.0</v>
+      </c>
+      <c r="V52" s="63">
         <f t="shared" si="6"/>
-        <v>82.75</v>
-      </c>
-      <c r="W52" s="63">
+        <v>92.75</v>
+      </c>
+      <c r="W52" s="64">
         <f t="shared" si="7"/>
-        <v>87.67602168</v>
-      </c>
-      <c r="X52" s="63">
+        <v>91.70385738</v>
+      </c>
+      <c r="X52" s="64">
         <f>VLOOKUP(W52,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Y52" s="63" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="Y52" s="64" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z52" s="64"/>
+      <c r="Z52" s="65"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="52"/>
@@ -5756,7 +5756,7 @@
       <c r="W53" s="81"/>
       <c r="X53" s="81"/>
       <c r="Y53" s="81"/>
-      <c r="Z53" s="63"/>
+      <c r="Z53" s="64"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="82" t="s">
@@ -12781,19 +12781,19 @@
         <f t="shared" ref="AH13:AH45" si="16">($Q13*$Q$11)+($S13*$S$11)+($U13*$U$11)+($W13*$W$11)+($Y13*$Y$11)+($AA13*$AA$11)+($AC13*$AC$11)+($AE13*$AE$11)+($AG13*$AG$11)</f>
         <v>50</v>
       </c>
-      <c r="AI13" s="63">
+      <c r="AI13" s="64">
         <f t="shared" ref="AI13:AI46" si="17">($O13*0.3)+($AH13*0.7)</f>
         <v>50</v>
       </c>
-      <c r="AJ13" s="63">
+      <c r="AJ13" s="64">
         <f>VLOOKUP(AI13,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK13" s="63" t="str">
+      <c r="AK13" s="64" t="str">
         <f t="shared" ref="AK13:AK45" si="18">IF(AJ13&lt;=3,"Passed","Failed")</f>
         <v>Failed</v>
       </c>
-      <c r="AL13" s="63"/>
+      <c r="AL13" s="64"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="52">
@@ -12884,19 +12884,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI14" s="63">
+      <c r="AI14" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ14" s="63">
+      <c r="AJ14" s="64">
         <f>VLOOKUP(AI14,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK14" s="63" t="str">
+      <c r="AK14" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL14" s="63"/>
+      <c r="AL14" s="64"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="52">
@@ -12987,19 +12987,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI15" s="63">
+      <c r="AI15" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ15" s="63">
+      <c r="AJ15" s="64">
         <f>VLOOKUP(AI15,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK15" s="63" t="str">
+      <c r="AK15" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL15" s="63"/>
+      <c r="AL15" s="64"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="52">
@@ -13090,19 +13090,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI16" s="63">
+      <c r="AI16" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ16" s="63">
+      <c r="AJ16" s="64">
         <f>VLOOKUP(AI16,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK16" s="63" t="str">
+      <c r="AK16" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL16" s="63"/>
+      <c r="AL16" s="64"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="52">
@@ -13193,19 +13193,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI17" s="63">
+      <c r="AI17" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ17" s="63">
+      <c r="AJ17" s="64">
         <f>VLOOKUP(AI17,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK17" s="63" t="str">
+      <c r="AK17" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL17" s="63"/>
+      <c r="AL17" s="64"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="52">
@@ -13296,19 +13296,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI18" s="63">
+      <c r="AI18" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ18" s="63">
+      <c r="AJ18" s="64">
         <f>VLOOKUP(AI18,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK18" s="63" t="str">
+      <c r="AK18" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL18" s="63"/>
+      <c r="AL18" s="64"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="52">
@@ -13399,19 +13399,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI19" s="63">
+      <c r="AI19" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ19" s="63">
+      <c r="AJ19" s="64">
         <f>VLOOKUP(AI19,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK19" s="63" t="str">
+      <c r="AK19" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL19" s="63"/>
+      <c r="AL19" s="64"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="52">
@@ -13500,19 +13500,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI20" s="63">
+      <c r="AI20" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ20" s="63">
+      <c r="AJ20" s="64">
         <f>VLOOKUP(AI20,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK20" s="63" t="str">
+      <c r="AK20" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL20" s="63"/>
+      <c r="AL20" s="64"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="52">
@@ -13603,19 +13603,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI21" s="63">
+      <c r="AI21" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ21" s="63">
+      <c r="AJ21" s="64">
         <f>VLOOKUP(AI21,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK21" s="63" t="str">
+      <c r="AK21" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL21" s="63"/>
+      <c r="AL21" s="64"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="52">
@@ -13706,19 +13706,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI22" s="63">
+      <c r="AI22" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ22" s="63">
+      <c r="AJ22" s="64">
         <f>VLOOKUP(AI22,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK22" s="63" t="str">
+      <c r="AK22" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL22" s="63"/>
+      <c r="AL22" s="64"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="52">
@@ -13809,19 +13809,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI23" s="63">
+      <c r="AI23" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ23" s="63">
+      <c r="AJ23" s="64">
         <f>VLOOKUP(AI23,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK23" s="63" t="str">
+      <c r="AK23" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL23" s="63"/>
+      <c r="AL23" s="64"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="52">
@@ -13912,11 +13912,11 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI24" s="63">
+      <c r="AI24" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ24" s="63">
+      <c r="AJ24" s="64">
         <f>VLOOKUP(AI24,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
@@ -13924,7 +13924,7 @@
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL24" s="63"/>
+      <c r="AL24" s="64"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="52">
@@ -14015,19 +14015,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI25" s="63">
+      <c r="AI25" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ25" s="63">
+      <c r="AJ25" s="64">
         <f>VLOOKUP(AI25,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK25" s="63" t="str">
+      <c r="AK25" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL25" s="63"/>
+      <c r="AL25" s="64"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="52">
@@ -14118,19 +14118,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI26" s="63">
+      <c r="AI26" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ26" s="63">
+      <c r="AJ26" s="64">
         <f>VLOOKUP(AI26,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK26" s="63" t="str">
+      <c r="AK26" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL26" s="63"/>
+      <c r="AL26" s="64"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="52">
@@ -14221,19 +14221,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI27" s="63">
+      <c r="AI27" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ27" s="63">
+      <c r="AJ27" s="64">
         <f>VLOOKUP(AI27,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK27" s="63" t="str">
+      <c r="AK27" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL27" s="63"/>
+      <c r="AL27" s="64"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="52">
@@ -14324,19 +14324,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI28" s="63">
+      <c r="AI28" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ28" s="63">
+      <c r="AJ28" s="64">
         <f>VLOOKUP(AI28,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK28" s="63" t="str">
+      <c r="AK28" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL28" s="63"/>
+      <c r="AL28" s="64"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="52">
@@ -14427,19 +14427,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI29" s="63">
+      <c r="AI29" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ29" s="63">
+      <c r="AJ29" s="64">
         <f>VLOOKUP(AI29,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK29" s="63" t="str">
+      <c r="AK29" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL29" s="63"/>
+      <c r="AL29" s="64"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="52">
@@ -14530,19 +14530,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI30" s="63">
+      <c r="AI30" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ30" s="63">
+      <c r="AJ30" s="64">
         <f>VLOOKUP(AI30,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK30" s="63" t="str">
+      <c r="AK30" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL30" s="63"/>
+      <c r="AL30" s="64"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="52">
@@ -14633,19 +14633,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI31" s="63">
+      <c r="AI31" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ31" s="63">
+      <c r="AJ31" s="64">
         <f>VLOOKUP(AI31,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK31" s="63" t="str">
+      <c r="AK31" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL31" s="63"/>
+      <c r="AL31" s="64"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="52">
@@ -14736,19 +14736,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI32" s="63">
+      <c r="AI32" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ32" s="63">
+      <c r="AJ32" s="64">
         <f>VLOOKUP(AI32,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK32" s="63" t="str">
+      <c r="AK32" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL32" s="63"/>
+      <c r="AL32" s="64"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="52">
@@ -14839,19 +14839,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI33" s="63">
+      <c r="AI33" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ33" s="63">
+      <c r="AJ33" s="64">
         <f>VLOOKUP(AI33,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK33" s="63" t="str">
+      <c r="AK33" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL33" s="63"/>
+      <c r="AL33" s="64"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="52">
@@ -14942,19 +14942,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI34" s="63">
+      <c r="AI34" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ34" s="63">
+      <c r="AJ34" s="64">
         <f>VLOOKUP(AI34,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK34" s="63" t="str">
+      <c r="AK34" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL34" s="63"/>
+      <c r="AL34" s="64"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="52">
@@ -15045,19 +15045,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI35" s="63">
+      <c r="AI35" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ35" s="63">
+      <c r="AJ35" s="64">
         <f>VLOOKUP(AI35,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK35" s="63" t="str">
+      <c r="AK35" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL35" s="63"/>
+      <c r="AL35" s="64"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="52">
@@ -15148,19 +15148,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI36" s="63">
+      <c r="AI36" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ36" s="63">
+      <c r="AJ36" s="64">
         <f>VLOOKUP(AI36,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK36" s="63" t="str">
+      <c r="AK36" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL36" s="63"/>
+      <c r="AL36" s="64"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="52">
@@ -15251,19 +15251,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI37" s="63">
+      <c r="AI37" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ37" s="63">
+      <c r="AJ37" s="64">
         <f>VLOOKUP(AI37,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK37" s="63" t="str">
+      <c r="AK37" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL37" s="63"/>
+      <c r="AL37" s="64"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="52">
@@ -15354,19 +15354,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI38" s="63">
+      <c r="AI38" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ38" s="63">
+      <c r="AJ38" s="64">
         <f>VLOOKUP(AI38,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK38" s="63" t="str">
+      <c r="AK38" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL38" s="63"/>
+      <c r="AL38" s="64"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="52">
@@ -15457,19 +15457,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI39" s="63">
+      <c r="AI39" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ39" s="63">
+      <c r="AJ39" s="64">
         <f>VLOOKUP(AI39,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK39" s="63" t="str">
+      <c r="AK39" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL39" s="63"/>
+      <c r="AL39" s="64"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="52">
@@ -15560,19 +15560,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI40" s="63">
+      <c r="AI40" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ40" s="63">
+      <c r="AJ40" s="64">
         <f>VLOOKUP(AI40,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK40" s="63" t="str">
+      <c r="AK40" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL40" s="63"/>
+      <c r="AL40" s="64"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="52">
@@ -15663,19 +15663,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI41" s="63">
+      <c r="AI41" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ41" s="63">
+      <c r="AJ41" s="64">
         <f>VLOOKUP(AI41,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK41" s="63" t="str">
+      <c r="AK41" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL41" s="63"/>
+      <c r="AL41" s="64"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="52">
@@ -15766,19 +15766,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI42" s="63">
+      <c r="AI42" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ42" s="63">
+      <c r="AJ42" s="64">
         <f>VLOOKUP(AI42,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK42" s="63" t="str">
+      <c r="AK42" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL42" s="63"/>
+      <c r="AL42" s="64"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="52">
@@ -15869,19 +15869,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI43" s="63">
+      <c r="AI43" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ43" s="63">
+      <c r="AJ43" s="64">
         <f>VLOOKUP(AI43,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK43" s="63" t="str">
+      <c r="AK43" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL43" s="63"/>
+      <c r="AL43" s="64"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="52">
@@ -15972,19 +15972,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI44" s="63">
+      <c r="AI44" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ44" s="63">
+      <c r="AJ44" s="64">
         <f>VLOOKUP(AI44,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK44" s="63" t="str">
+      <c r="AK44" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL44" s="63"/>
+      <c r="AL44" s="64"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="52">
@@ -16075,19 +16075,19 @@
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI45" s="63">
+      <c r="AI45" s="64">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ45" s="63">
+      <c r="AJ45" s="64">
         <f>VLOOKUP(AI45,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK45" s="63" t="str">
+      <c r="AK45" s="64" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL45" s="63"/>
+      <c r="AL45" s="64"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="46"/>
@@ -16124,11 +16124,11 @@
       <c r="AF46" s="129"/>
       <c r="AG46" s="128"/>
       <c r="AH46" s="130"/>
-      <c r="AI46" s="63">
+      <c r="AI46" s="64">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AJ46" s="63">
+      <c r="AJ46" s="64">
         <f>VLOOKUP(AI46,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
